--- a/Documentacion/Usuariosv3.xlsx
+++ b/Documentacion/Usuariosv3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="1331">
   <si>
     <t>id_usuario</t>
   </si>
@@ -2647,94 +2647,1381 @@
     <t>C://SISIA//documento3.pdf</t>
   </si>
   <si>
-    <t>Nombreuno</t>
-  </si>
-  <si>
-    <t>Nombredos</t>
-  </si>
-  <si>
-    <t>Nombretres</t>
-  </si>
-  <si>
-    <t>Nombrecuatro</t>
-  </si>
-  <si>
-    <t>Nombrecinco</t>
-  </si>
-  <si>
-    <t>Nombreseis</t>
-  </si>
-  <si>
-    <t>Nombresiete</t>
-  </si>
-  <si>
-    <t>Nombreocho</t>
-  </si>
-  <si>
-    <t>Nombrenueve</t>
-  </si>
-  <si>
-    <t>Nombrediez</t>
-  </si>
-  <si>
-    <t>Apuno</t>
-  </si>
-  <si>
-    <t>Apdos</t>
-  </si>
-  <si>
-    <t>Aptres</t>
-  </si>
-  <si>
-    <t>Apcuatro</t>
-  </si>
-  <si>
-    <t>Apcinco</t>
-  </si>
-  <si>
-    <t>Apseis</t>
-  </si>
-  <si>
-    <t>Apsiete</t>
-  </si>
-  <si>
-    <t>Apocho</t>
-  </si>
-  <si>
-    <t>Apnueve</t>
-  </si>
-  <si>
-    <t>Apdiez</t>
-  </si>
-  <si>
-    <t>Amuno</t>
-  </si>
-  <si>
-    <t>Amdos</t>
-  </si>
-  <si>
-    <t>Amtres</t>
-  </si>
-  <si>
-    <t>Amcuatro</t>
-  </si>
-  <si>
-    <t>Amcinco</t>
-  </si>
-  <si>
-    <t>Amseis</t>
-  </si>
-  <si>
-    <t>Amsiete</t>
-  </si>
-  <si>
-    <t>Amocho</t>
-  </si>
-  <si>
-    <t>Amnueve</t>
-  </si>
-  <si>
-    <t>Amdiez</t>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_1</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_2</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_3</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_4</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_5</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_6</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_7</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_8</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_9</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_10</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_11</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_12</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_13</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_14</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_15</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_16</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_17</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_18</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_19</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_20</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_21</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_22</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_23</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_24</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_25</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_26</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_27</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_28</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_29</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_30</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_31</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_32</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_33</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_34</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_35</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_36</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_37</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_38</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_39</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_40</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_41</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_42</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_43</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_44</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_45</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_46</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_47</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_48</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_49</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_50</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_51</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_52</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_53</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_54</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_55</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_56</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_57</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_58</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_59</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_60</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_61</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_62</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_63</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_64</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_65</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_66</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_67</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_68</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_69</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_70</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_71</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_72</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_73</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_74</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_75</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_76</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_77</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_78</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_79</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_80</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_81</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_82</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_83</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_84</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_85</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_86</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_87</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_88</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_89</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_90</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_91</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_92</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_93</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_94</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_95</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_96</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_97</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_98</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_99</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_100</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_101</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_102</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_103</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_104</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_105</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_106</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_107</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_108</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_109</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_110</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_111</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_112</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_113</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_114</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_115</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_116</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_117</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_118</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_119</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_120</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_121</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_122</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_123</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_124</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_125</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_126</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_127</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_128</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_129</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_130</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_131</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_132</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_133</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_134</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_135</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_136</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_137</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_138</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_139</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_140</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_141</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_142</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_143</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_144</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_145</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_146</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_147</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_148</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_149</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_150</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_151</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_152</t>
+  </si>
+  <si>
+    <t>Mapeo, entrenamiento, supervisión y evaluación: se lleva a cabo el mapeo de 640 hectáreas de cítricos para complementar des_153</t>
+  </si>
+  <si>
+    <t>Calle1</t>
+  </si>
+  <si>
+    <t>Calle2</t>
+  </si>
+  <si>
+    <t>Calle3</t>
+  </si>
+  <si>
+    <t>Calle4</t>
+  </si>
+  <si>
+    <t>Calle5</t>
+  </si>
+  <si>
+    <t>Calle6</t>
+  </si>
+  <si>
+    <t>Calle7</t>
+  </si>
+  <si>
+    <t>Calle8</t>
+  </si>
+  <si>
+    <t>Calle9</t>
+  </si>
+  <si>
+    <t>Calle10</t>
+  </si>
+  <si>
+    <t>Calle11</t>
+  </si>
+  <si>
+    <t>Calle12</t>
+  </si>
+  <si>
+    <t>Calle13</t>
+  </si>
+  <si>
+    <t>Calle14</t>
+  </si>
+  <si>
+    <t>Calle15</t>
+  </si>
+  <si>
+    <t>Calle16</t>
+  </si>
+  <si>
+    <t>Calle17</t>
+  </si>
+  <si>
+    <t>Calle18</t>
+  </si>
+  <si>
+    <t>Calle19</t>
+  </si>
+  <si>
+    <t>Calle20</t>
+  </si>
+  <si>
+    <t>Calle21</t>
+  </si>
+  <si>
+    <t>Calle22</t>
+  </si>
+  <si>
+    <t>Calle23</t>
+  </si>
+  <si>
+    <t>Calle24</t>
+  </si>
+  <si>
+    <t>Calle25</t>
+  </si>
+  <si>
+    <t>Calle26</t>
+  </si>
+  <si>
+    <t>Calle27</t>
+  </si>
+  <si>
+    <t>Calle28</t>
+  </si>
+  <si>
+    <t>Calle29</t>
+  </si>
+  <si>
+    <t>Calle30</t>
+  </si>
+  <si>
+    <t>Calle31</t>
+  </si>
+  <si>
+    <t>Calle32</t>
+  </si>
+  <si>
+    <t>Calle33</t>
+  </si>
+  <si>
+    <t>Calle34</t>
+  </si>
+  <si>
+    <t>Calle35</t>
+  </si>
+  <si>
+    <t>Calle36</t>
+  </si>
+  <si>
+    <t>Calle37</t>
+  </si>
+  <si>
+    <t>Calle38</t>
+  </si>
+  <si>
+    <t>Calle39</t>
+  </si>
+  <si>
+    <t>Calle40</t>
+  </si>
+  <si>
+    <t>Calle41</t>
+  </si>
+  <si>
+    <t>Calle42</t>
+  </si>
+  <si>
+    <t>Calle43</t>
+  </si>
+  <si>
+    <t>Calle44</t>
+  </si>
+  <si>
+    <t>Calle45</t>
+  </si>
+  <si>
+    <t>Calle46</t>
+  </si>
+  <si>
+    <t>Calle47</t>
+  </si>
+  <si>
+    <t>Calle48</t>
+  </si>
+  <si>
+    <t>Calle49</t>
+  </si>
+  <si>
+    <t>Calle50</t>
+  </si>
+  <si>
+    <t>Calle51</t>
+  </si>
+  <si>
+    <t>Calle52</t>
+  </si>
+  <si>
+    <t>Calle53</t>
+  </si>
+  <si>
+    <t>Calle54</t>
+  </si>
+  <si>
+    <t>Calle55</t>
+  </si>
+  <si>
+    <t>Calle56</t>
+  </si>
+  <si>
+    <t>Calle57</t>
+  </si>
+  <si>
+    <t>Calle58</t>
+  </si>
+  <si>
+    <t>Calle59</t>
+  </si>
+  <si>
+    <t>Calle60</t>
+  </si>
+  <si>
+    <t>Calle61</t>
+  </si>
+  <si>
+    <t>Calle62</t>
+  </si>
+  <si>
+    <t>Calle63</t>
+  </si>
+  <si>
+    <t>Calle64</t>
+  </si>
+  <si>
+    <t>Calle65</t>
+  </si>
+  <si>
+    <t>Calle66</t>
+  </si>
+  <si>
+    <t>Calle67</t>
+  </si>
+  <si>
+    <t>Calle68</t>
+  </si>
+  <si>
+    <t>Calle69</t>
+  </si>
+  <si>
+    <t>Calle70</t>
+  </si>
+  <si>
+    <t>Calle71</t>
+  </si>
+  <si>
+    <t>Calle72</t>
+  </si>
+  <si>
+    <t>Calle73</t>
+  </si>
+  <si>
+    <t>Calle74</t>
+  </si>
+  <si>
+    <t>Calle75</t>
+  </si>
+  <si>
+    <t>Calle76</t>
+  </si>
+  <si>
+    <t>Calle77</t>
+  </si>
+  <si>
+    <t>Calle78</t>
+  </si>
+  <si>
+    <t>Calle79</t>
+  </si>
+  <si>
+    <t>Calle80</t>
+  </si>
+  <si>
+    <t>Calle81</t>
+  </si>
+  <si>
+    <t>Calle82</t>
+  </si>
+  <si>
+    <t>Calle83</t>
+  </si>
+  <si>
+    <t>Calle84</t>
+  </si>
+  <si>
+    <t>Calle85</t>
+  </si>
+  <si>
+    <t>Calle86</t>
+  </si>
+  <si>
+    <t>Calle87</t>
+  </si>
+  <si>
+    <t>Calle88</t>
+  </si>
+  <si>
+    <t>Calle89</t>
+  </si>
+  <si>
+    <t>Calle90</t>
+  </si>
+  <si>
+    <t>Calle91</t>
+  </si>
+  <si>
+    <t>Calle92</t>
+  </si>
+  <si>
+    <t>Calle93</t>
+  </si>
+  <si>
+    <t>Calle94</t>
+  </si>
+  <si>
+    <t>Calle95</t>
+  </si>
+  <si>
+    <t>Calle96</t>
+  </si>
+  <si>
+    <t>Calle97</t>
+  </si>
+  <si>
+    <t>Calle98</t>
+  </si>
+  <si>
+    <t>Calle99</t>
+  </si>
+  <si>
+    <t>Calle100</t>
+  </si>
+  <si>
+    <t>Calle101</t>
+  </si>
+  <si>
+    <t>Calle102</t>
+  </si>
+  <si>
+    <t>Calle103</t>
+  </si>
+  <si>
+    <t>Calle104</t>
+  </si>
+  <si>
+    <t>Calle105</t>
+  </si>
+  <si>
+    <t>Calle106</t>
+  </si>
+  <si>
+    <t>Calle107</t>
+  </si>
+  <si>
+    <t>Calle108</t>
+  </si>
+  <si>
+    <t>Calle109</t>
+  </si>
+  <si>
+    <t>Calle110</t>
+  </si>
+  <si>
+    <t>Calle111</t>
+  </si>
+  <si>
+    <t>Calle112</t>
+  </si>
+  <si>
+    <t>Calle113</t>
+  </si>
+  <si>
+    <t>Calle114</t>
+  </si>
+  <si>
+    <t>Calle115</t>
+  </si>
+  <si>
+    <t>Calle116</t>
+  </si>
+  <si>
+    <t>Calle117</t>
+  </si>
+  <si>
+    <t>Calle118</t>
+  </si>
+  <si>
+    <t>Calle119</t>
+  </si>
+  <si>
+    <t>Calle120</t>
+  </si>
+  <si>
+    <t>Calle121</t>
+  </si>
+  <si>
+    <t>Calle122</t>
+  </si>
+  <si>
+    <t>Calle123</t>
+  </si>
+  <si>
+    <t>Calle124</t>
+  </si>
+  <si>
+    <t>Calle125</t>
+  </si>
+  <si>
+    <t>Calle126</t>
+  </si>
+  <si>
+    <t>Calle127</t>
+  </si>
+  <si>
+    <t>Calle128</t>
+  </si>
+  <si>
+    <t>Calle129</t>
+  </si>
+  <si>
+    <t>Calle130</t>
+  </si>
+  <si>
+    <t>Calle131</t>
+  </si>
+  <si>
+    <t>Calle132</t>
+  </si>
+  <si>
+    <t>Calle133</t>
+  </si>
+  <si>
+    <t>Calle134</t>
+  </si>
+  <si>
+    <t>Calle135</t>
+  </si>
+  <si>
+    <t>Calle136</t>
+  </si>
+  <si>
+    <t>Calle137</t>
+  </si>
+  <si>
+    <t>Calle138</t>
+  </si>
+  <si>
+    <t>Calle139</t>
+  </si>
+  <si>
+    <t>Calle140</t>
+  </si>
+  <si>
+    <t>Calle141</t>
+  </si>
+  <si>
+    <t>Calle142</t>
+  </si>
+  <si>
+    <t>Calle143</t>
+  </si>
+  <si>
+    <t>Calle144</t>
+  </si>
+  <si>
+    <t>Calle145</t>
+  </si>
+  <si>
+    <t>Calle146</t>
+  </si>
+  <si>
+    <t>Calle147</t>
+  </si>
+  <si>
+    <t>Calle148</t>
+  </si>
+  <si>
+    <t>Calle149</t>
+  </si>
+  <si>
+    <t>Calle150</t>
+  </si>
+  <si>
+    <t>Calle151</t>
+  </si>
+  <si>
+    <t>Calle152</t>
+  </si>
+  <si>
+    <t>Calle153</t>
+  </si>
+  <si>
+    <t>Colonia1</t>
+  </si>
+  <si>
+    <t>Colonia2</t>
+  </si>
+  <si>
+    <t>Colonia3</t>
+  </si>
+  <si>
+    <t>Colonia4</t>
+  </si>
+  <si>
+    <t>Colonia5</t>
+  </si>
+  <si>
+    <t>Colonia6</t>
+  </si>
+  <si>
+    <t>Colonia7</t>
+  </si>
+  <si>
+    <t>Colonia8</t>
+  </si>
+  <si>
+    <t>Colonia9</t>
+  </si>
+  <si>
+    <t>Colonia10</t>
+  </si>
+  <si>
+    <t>Colonia11</t>
+  </si>
+  <si>
+    <t>Colonia12</t>
+  </si>
+  <si>
+    <t>Colonia13</t>
+  </si>
+  <si>
+    <t>Colonia14</t>
+  </si>
+  <si>
+    <t>Colonia15</t>
+  </si>
+  <si>
+    <t>Colonia16</t>
+  </si>
+  <si>
+    <t>Colonia17</t>
+  </si>
+  <si>
+    <t>Colonia18</t>
+  </si>
+  <si>
+    <t>Colonia19</t>
+  </si>
+  <si>
+    <t>Colonia20</t>
+  </si>
+  <si>
+    <t>Colonia21</t>
+  </si>
+  <si>
+    <t>Colonia22</t>
+  </si>
+  <si>
+    <t>Colonia23</t>
+  </si>
+  <si>
+    <t>Colonia24</t>
+  </si>
+  <si>
+    <t>Colonia25</t>
+  </si>
+  <si>
+    <t>Colonia26</t>
+  </si>
+  <si>
+    <t>Colonia27</t>
+  </si>
+  <si>
+    <t>Colonia28</t>
+  </si>
+  <si>
+    <t>Colonia29</t>
+  </si>
+  <si>
+    <t>Colonia30</t>
+  </si>
+  <si>
+    <t>Colonia31</t>
+  </si>
+  <si>
+    <t>Colonia32</t>
+  </si>
+  <si>
+    <t>Colonia33</t>
+  </si>
+  <si>
+    <t>Colonia34</t>
+  </si>
+  <si>
+    <t>Colonia35</t>
+  </si>
+  <si>
+    <t>Colonia36</t>
+  </si>
+  <si>
+    <t>Colonia37</t>
+  </si>
+  <si>
+    <t>Colonia38</t>
+  </si>
+  <si>
+    <t>Colonia39</t>
+  </si>
+  <si>
+    <t>Colonia40</t>
+  </si>
+  <si>
+    <t>Colonia41</t>
+  </si>
+  <si>
+    <t>Colonia42</t>
+  </si>
+  <si>
+    <t>Colonia43</t>
+  </si>
+  <si>
+    <t>Colonia44</t>
+  </si>
+  <si>
+    <t>Colonia45</t>
+  </si>
+  <si>
+    <t>Colonia46</t>
+  </si>
+  <si>
+    <t>Colonia47</t>
+  </si>
+  <si>
+    <t>Colonia48</t>
+  </si>
+  <si>
+    <t>Colonia49</t>
+  </si>
+  <si>
+    <t>Colonia50</t>
+  </si>
+  <si>
+    <t>Colonia51</t>
+  </si>
+  <si>
+    <t>Colonia52</t>
+  </si>
+  <si>
+    <t>Colonia53</t>
+  </si>
+  <si>
+    <t>Colonia54</t>
+  </si>
+  <si>
+    <t>Colonia55</t>
+  </si>
+  <si>
+    <t>Colonia56</t>
+  </si>
+  <si>
+    <t>Colonia57</t>
+  </si>
+  <si>
+    <t>Colonia58</t>
+  </si>
+  <si>
+    <t>Colonia59</t>
+  </si>
+  <si>
+    <t>Colonia60</t>
+  </si>
+  <si>
+    <t>Colonia61</t>
+  </si>
+  <si>
+    <t>Colonia62</t>
+  </si>
+  <si>
+    <t>Colonia63</t>
+  </si>
+  <si>
+    <t>Colonia64</t>
+  </si>
+  <si>
+    <t>Colonia65</t>
+  </si>
+  <si>
+    <t>Colonia66</t>
+  </si>
+  <si>
+    <t>Colonia67</t>
+  </si>
+  <si>
+    <t>Colonia68</t>
+  </si>
+  <si>
+    <t>Colonia69</t>
+  </si>
+  <si>
+    <t>Colonia70</t>
+  </si>
+  <si>
+    <t>Colonia71</t>
+  </si>
+  <si>
+    <t>Colonia72</t>
+  </si>
+  <si>
+    <t>Colonia73</t>
+  </si>
+  <si>
+    <t>Colonia74</t>
+  </si>
+  <si>
+    <t>Colonia75</t>
+  </si>
+  <si>
+    <t>Colonia76</t>
+  </si>
+  <si>
+    <t>Colonia77</t>
+  </si>
+  <si>
+    <t>Colonia78</t>
+  </si>
+  <si>
+    <t>Colonia79</t>
+  </si>
+  <si>
+    <t>Colonia80</t>
+  </si>
+  <si>
+    <t>Colonia81</t>
+  </si>
+  <si>
+    <t>Colonia82</t>
+  </si>
+  <si>
+    <t>Colonia83</t>
+  </si>
+  <si>
+    <t>Colonia84</t>
+  </si>
+  <si>
+    <t>Colonia85</t>
+  </si>
+  <si>
+    <t>Colonia86</t>
+  </si>
+  <si>
+    <t>Colonia87</t>
+  </si>
+  <si>
+    <t>Colonia88</t>
+  </si>
+  <si>
+    <t>Colonia89</t>
+  </si>
+  <si>
+    <t>Colonia90</t>
+  </si>
+  <si>
+    <t>Colonia91</t>
+  </si>
+  <si>
+    <t>Colonia92</t>
+  </si>
+  <si>
+    <t>Colonia93</t>
+  </si>
+  <si>
+    <t>Colonia94</t>
+  </si>
+  <si>
+    <t>Colonia95</t>
+  </si>
+  <si>
+    <t>Colonia96</t>
+  </si>
+  <si>
+    <t>Colonia97</t>
+  </si>
+  <si>
+    <t>Colonia98</t>
+  </si>
+  <si>
+    <t>Colonia99</t>
+  </si>
+  <si>
+    <t>Colonia100</t>
+  </si>
+  <si>
+    <t>Colonia101</t>
+  </si>
+  <si>
+    <t>Colonia102</t>
+  </si>
+  <si>
+    <t>Colonia103</t>
+  </si>
+  <si>
+    <t>Colonia104</t>
+  </si>
+  <si>
+    <t>Colonia105</t>
+  </si>
+  <si>
+    <t>Colonia106</t>
+  </si>
+  <si>
+    <t>Colonia107</t>
+  </si>
+  <si>
+    <t>Colonia108</t>
+  </si>
+  <si>
+    <t>Colonia109</t>
+  </si>
+  <si>
+    <t>Colonia110</t>
+  </si>
+  <si>
+    <t>Colonia111</t>
+  </si>
+  <si>
+    <t>Colonia112</t>
+  </si>
+  <si>
+    <t>Colonia113</t>
+  </si>
+  <si>
+    <t>Colonia114</t>
+  </si>
+  <si>
+    <t>Colonia115</t>
+  </si>
+  <si>
+    <t>Colonia116</t>
+  </si>
+  <si>
+    <t>Colonia117</t>
+  </si>
+  <si>
+    <t>Colonia118</t>
+  </si>
+  <si>
+    <t>Colonia119</t>
+  </si>
+  <si>
+    <t>Colonia120</t>
+  </si>
+  <si>
+    <t>Colonia121</t>
+  </si>
+  <si>
+    <t>Colonia122</t>
+  </si>
+  <si>
+    <t>Colonia123</t>
+  </si>
+  <si>
+    <t>Colonia124</t>
+  </si>
+  <si>
+    <t>Colonia125</t>
+  </si>
+  <si>
+    <t>Colonia126</t>
+  </si>
+  <si>
+    <t>Colonia127</t>
+  </si>
+  <si>
+    <t>Colonia128</t>
+  </si>
+  <si>
+    <t>Colonia129</t>
+  </si>
+  <si>
+    <t>Colonia130</t>
+  </si>
+  <si>
+    <t>Colonia131</t>
+  </si>
+  <si>
+    <t>Colonia132</t>
+  </si>
+  <si>
+    <t>Colonia133</t>
+  </si>
+  <si>
+    <t>Colonia134</t>
+  </si>
+  <si>
+    <t>Colonia135</t>
+  </si>
+  <si>
+    <t>Colonia136</t>
+  </si>
+  <si>
+    <t>Colonia137</t>
+  </si>
+  <si>
+    <t>Colonia138</t>
+  </si>
+  <si>
+    <t>Colonia139</t>
+  </si>
+  <si>
+    <t>Colonia140</t>
+  </si>
+  <si>
+    <t>Colonia141</t>
+  </si>
+  <si>
+    <t>Colonia142</t>
+  </si>
+  <si>
+    <t>Colonia143</t>
+  </si>
+  <si>
+    <t>Colonia144</t>
+  </si>
+  <si>
+    <t>Colonia145</t>
+  </si>
+  <si>
+    <t>Colonia146</t>
+  </si>
+  <si>
+    <t>Colonia147</t>
+  </si>
+  <si>
+    <t>Colonia148</t>
+  </si>
+  <si>
+    <t>Colonia149</t>
+  </si>
+  <si>
+    <t>Colonia150</t>
+  </si>
+  <si>
+    <t>Colonia151</t>
+  </si>
+  <si>
+    <t>Colonia152</t>
+  </si>
+  <si>
+    <t>Colonia153</t>
   </si>
 </sst>
 </file>
@@ -10551,10 +11838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y168"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="W118" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10565,9 +11852,12 @@
     <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="110.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" customWidth="1"/>
+    <col min="27" max="27" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>147</v>
       </c>
@@ -10630,17 +11920,20 @@
       <c r="V1" t="s">
         <v>871</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
         <v>872</v>
       </c>
-      <c r="X1" t="s">
-        <v>882</v>
-      </c>
       <c r="Y1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -10703,17 +11996,20 @@
       <c r="V2" t="s">
         <v>871</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
         <v>873</v>
       </c>
-      <c r="X2" t="s">
-        <v>883</v>
-      </c>
       <c r="Y2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>146</v>
       </c>
@@ -10776,17 +12072,20 @@
       <c r="V3" t="s">
         <v>871</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
         <v>874</v>
       </c>
-      <c r="X3" t="s">
-        <v>884</v>
-      </c>
       <c r="Y3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>150</v>
       </c>
@@ -10849,17 +12148,20 @@
       <c r="V4" t="s">
         <v>871</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
         <v>875</v>
       </c>
-      <c r="X4" t="s">
-        <v>885</v>
-      </c>
       <c r="Y4" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>151</v>
       </c>
@@ -10922,17 +12224,20 @@
       <c r="V5" t="s">
         <v>871</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
         <v>876</v>
       </c>
-      <c r="X5" t="s">
-        <v>886</v>
-      </c>
       <c r="Y5" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>148</v>
       </c>
@@ -10995,17 +12300,20 @@
       <c r="V6" t="s">
         <v>871</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
         <v>877</v>
       </c>
-      <c r="X6" t="s">
-        <v>887</v>
-      </c>
       <c r="Y6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>152</v>
       </c>
@@ -11068,17 +12376,20 @@
       <c r="V7" t="s">
         <v>871</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
         <v>878</v>
       </c>
-      <c r="X7" t="s">
-        <v>888</v>
-      </c>
       <c r="Y7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>153</v>
       </c>
@@ -11141,17 +12452,20 @@
       <c r="V8" t="s">
         <v>871</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8" t="s">
         <v>879</v>
       </c>
-      <c r="X8" t="s">
-        <v>889</v>
-      </c>
       <c r="Y8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>149</v>
       </c>
@@ -11212,17 +12526,20 @@
       <c r="V9" t="s">
         <v>871</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
         <v>880</v>
       </c>
-      <c r="X9" t="s">
-        <v>890</v>
-      </c>
       <c r="Y9" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>169</v>
       </c>
@@ -11285,17 +12602,20 @@
       <c r="V10" t="s">
         <v>871</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
         <v>881</v>
       </c>
-      <c r="X10" t="s">
-        <v>891</v>
-      </c>
       <c r="Y10" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>176</v>
       </c>
@@ -11358,17 +12678,20 @@
       <c r="V11" t="s">
         <v>871</v>
       </c>
-      <c r="W11" t="s">
-        <v>872</v>
+      <c r="W11">
+        <v>3</v>
       </c>
       <c r="X11" t="s">
         <v>882</v>
       </c>
       <c r="Y11" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>168</v>
       </c>
@@ -11431,17 +12754,20 @@
       <c r="V12" t="s">
         <v>871</v>
       </c>
-      <c r="W12" t="s">
-        <v>873</v>
+      <c r="W12">
+        <v>4</v>
       </c>
       <c r="X12" t="s">
         <v>883</v>
       </c>
       <c r="Y12" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>172</v>
       </c>
@@ -11504,17 +12830,20 @@
       <c r="V13" t="s">
         <v>871</v>
       </c>
-      <c r="W13" t="s">
-        <v>874</v>
+      <c r="W13">
+        <v>1</v>
       </c>
       <c r="X13" t="s">
         <v>884</v>
       </c>
       <c r="Y13" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
@@ -11577,17 +12906,20 @@
       <c r="V14" t="s">
         <v>871</v>
       </c>
-      <c r="W14" t="s">
-        <v>875</v>
+      <c r="W14">
+        <v>2</v>
       </c>
       <c r="X14" t="s">
         <v>885</v>
       </c>
       <c r="Y14" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
@@ -11650,17 +12982,20 @@
       <c r="V15" t="s">
         <v>871</v>
       </c>
-      <c r="W15" t="s">
-        <v>876</v>
+      <c r="W15">
+        <v>3</v>
       </c>
       <c r="X15" t="s">
         <v>886</v>
       </c>
       <c r="Y15" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1039</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -11723,17 +13058,20 @@
       <c r="V16" t="s">
         <v>871</v>
       </c>
-      <c r="W16" t="s">
-        <v>877</v>
+      <c r="W16">
+        <v>4</v>
       </c>
       <c r="X16" t="s">
         <v>887</v>
       </c>
       <c r="Y16" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>175</v>
       </c>
@@ -11796,17 +13134,20 @@
       <c r="V17" t="s">
         <v>871</v>
       </c>
-      <c r="W17" t="s">
-        <v>878</v>
+      <c r="W17">
+        <v>1</v>
       </c>
       <c r="X17" t="s">
         <v>888</v>
       </c>
       <c r="Y17" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1041</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>171</v>
       </c>
@@ -11867,17 +13208,20 @@
       <c r="V18" t="s">
         <v>871</v>
       </c>
-      <c r="W18" t="s">
-        <v>879</v>
+      <c r="W18">
+        <v>2</v>
       </c>
       <c r="X18" t="s">
         <v>889</v>
       </c>
       <c r="Y18" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1042</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>190</v>
       </c>
@@ -11940,17 +13284,20 @@
       <c r="V19" t="s">
         <v>871</v>
       </c>
-      <c r="W19" t="s">
-        <v>880</v>
+      <c r="W19">
+        <v>3</v>
       </c>
       <c r="X19" t="s">
         <v>890</v>
       </c>
       <c r="Y19" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>204</v>
       </c>
@@ -12013,17 +13360,20 @@
       <c r="V20" t="s">
         <v>871</v>
       </c>
-      <c r="W20" t="s">
-        <v>881</v>
+      <c r="W20">
+        <v>4</v>
       </c>
       <c r="X20" t="s">
         <v>891</v>
       </c>
       <c r="Y20" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>188</v>
       </c>
@@ -12086,17 +13436,20 @@
       <c r="V21" t="s">
         <v>871</v>
       </c>
-      <c r="W21" t="s">
-        <v>872</v>
+      <c r="W21">
+        <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="Y21" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>196</v>
       </c>
@@ -12159,17 +13512,20 @@
       <c r="V22" t="s">
         <v>871</v>
       </c>
-      <c r="W22" t="s">
-        <v>873</v>
+      <c r="W22">
+        <v>2</v>
       </c>
       <c r="X22" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="Y22" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>198</v>
       </c>
@@ -12232,17 +13588,20 @@
       <c r="V23" t="s">
         <v>871</v>
       </c>
-      <c r="W23" t="s">
-        <v>874</v>
+      <c r="W23">
+        <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="Y23" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>192</v>
       </c>
@@ -12305,17 +13664,20 @@
       <c r="V24" t="s">
         <v>871</v>
       </c>
-      <c r="W24" t="s">
-        <v>875</v>
+      <c r="W24">
+        <v>4</v>
       </c>
       <c r="X24" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="Y24" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1048</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>200</v>
       </c>
@@ -12378,17 +13740,20 @@
       <c r="V25" t="s">
         <v>871</v>
       </c>
-      <c r="W25" t="s">
-        <v>876</v>
+      <c r="W25">
+        <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="Y25" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>202</v>
       </c>
@@ -12451,17 +13816,20 @@
       <c r="V26" t="s">
         <v>871</v>
       </c>
-      <c r="W26" t="s">
-        <v>877</v>
+      <c r="W26">
+        <v>2</v>
       </c>
       <c r="X26" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="Y26" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>194</v>
       </c>
@@ -12522,17 +13890,20 @@
       <c r="V27" t="s">
         <v>871</v>
       </c>
-      <c r="W27" t="s">
-        <v>878</v>
+      <c r="W27">
+        <v>3</v>
       </c>
       <c r="X27" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="Y27" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>285</v>
       </c>
@@ -12595,17 +13966,20 @@
       <c r="V28" t="s">
         <v>871</v>
       </c>
-      <c r="W28" t="s">
-        <v>879</v>
+      <c r="W28">
+        <v>4</v>
       </c>
       <c r="X28" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="Y28" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>299</v>
       </c>
@@ -12668,17 +14042,20 @@
       <c r="V29" t="s">
         <v>871</v>
       </c>
-      <c r="W29" t="s">
-        <v>880</v>
+      <c r="W29">
+        <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="Y29" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>283</v>
       </c>
@@ -12741,17 +14118,20 @@
       <c r="V30" t="s">
         <v>871</v>
       </c>
-      <c r="W30" t="s">
-        <v>881</v>
+      <c r="W30">
+        <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="Y30" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>291</v>
       </c>
@@ -12814,17 +14194,20 @@
       <c r="V31" t="s">
         <v>871</v>
       </c>
-      <c r="W31" t="s">
-        <v>872</v>
+      <c r="W31">
+        <v>3</v>
       </c>
       <c r="X31" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="Y31" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>293</v>
       </c>
@@ -12887,17 +14270,20 @@
       <c r="V32" t="s">
         <v>871</v>
       </c>
-      <c r="W32" t="s">
-        <v>873</v>
+      <c r="W32">
+        <v>4</v>
       </c>
       <c r="X32" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="Y32" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>287</v>
       </c>
@@ -12960,17 +14346,20 @@
       <c r="V33" t="s">
         <v>871</v>
       </c>
-      <c r="W33" t="s">
-        <v>874</v>
+      <c r="W33">
+        <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="Y33" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>295</v>
       </c>
@@ -13033,17 +14422,20 @@
       <c r="V34" t="s">
         <v>871</v>
       </c>
-      <c r="W34" t="s">
-        <v>875</v>
+      <c r="W34">
+        <v>2</v>
       </c>
       <c r="X34" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="Y34" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>297</v>
       </c>
@@ -13106,17 +14498,20 @@
       <c r="V35" t="s">
         <v>871</v>
       </c>
-      <c r="W35" t="s">
-        <v>876</v>
+      <c r="W35">
+        <v>3</v>
       </c>
       <c r="X35" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="Y35" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>289</v>
       </c>
@@ -13177,17 +14572,20 @@
       <c r="V36" t="s">
         <v>871</v>
       </c>
-      <c r="W36" t="s">
-        <v>877</v>
+      <c r="W36">
+        <v>4</v>
       </c>
       <c r="X36" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="Y36" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1060</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>266</v>
       </c>
@@ -13250,17 +14648,20 @@
       <c r="V37" t="s">
         <v>871</v>
       </c>
-      <c r="W37" t="s">
-        <v>878</v>
+      <c r="W37">
+        <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="Y37" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1061</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>273</v>
       </c>
@@ -13323,17 +14724,20 @@
       <c r="V38" t="s">
         <v>871</v>
       </c>
-      <c r="W38" t="s">
-        <v>879</v>
+      <c r="W38">
+        <v>2</v>
       </c>
       <c r="X38" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="Y38" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1062</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>265</v>
       </c>
@@ -13396,17 +14800,20 @@
       <c r="V39" t="s">
         <v>871</v>
       </c>
-      <c r="W39" t="s">
-        <v>880</v>
+      <c r="W39">
+        <v>3</v>
       </c>
       <c r="X39" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="Y39" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1063</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>269</v>
       </c>
@@ -13469,17 +14876,20 @@
       <c r="V40" t="s">
         <v>871</v>
       </c>
-      <c r="W40" t="s">
-        <v>881</v>
+      <c r="W40">
+        <v>4</v>
       </c>
       <c r="X40" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="Y40" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>270</v>
       </c>
@@ -13542,17 +14952,20 @@
       <c r="V41" t="s">
         <v>871</v>
       </c>
-      <c r="W41" t="s">
-        <v>872</v>
+      <c r="W41">
+        <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="Y41" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1065</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>267</v>
       </c>
@@ -13615,17 +15028,20 @@
       <c r="V42" t="s">
         <v>871</v>
       </c>
-      <c r="W42" t="s">
-        <v>873</v>
+      <c r="W42">
+        <v>2</v>
       </c>
       <c r="X42" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="Y42" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1066</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>271</v>
       </c>
@@ -13688,17 +15104,20 @@
       <c r="V43" t="s">
         <v>871</v>
       </c>
-      <c r="W43" t="s">
-        <v>874</v>
+      <c r="W43">
+        <v>3</v>
       </c>
       <c r="X43" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="Y43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1067</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>272</v>
       </c>
@@ -13761,17 +15180,20 @@
       <c r="V44" t="s">
         <v>871</v>
       </c>
-      <c r="W44" t="s">
-        <v>875</v>
+      <c r="W44">
+        <v>4</v>
       </c>
       <c r="X44" t="s">
-        <v>885</v>
+        <v>915</v>
       </c>
       <c r="Y44" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1068</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>268</v>
       </c>
@@ -13832,17 +15254,20 @@
       <c r="V45" t="s">
         <v>871</v>
       </c>
-      <c r="W45" t="s">
-        <v>876</v>
+      <c r="W45">
+        <v>1</v>
       </c>
       <c r="X45" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="Y45" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1069</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>321</v>
       </c>
@@ -13905,17 +15330,20 @@
       <c r="V46" t="s">
         <v>871</v>
       </c>
-      <c r="W46" t="s">
-        <v>877</v>
+      <c r="W46">
+        <v>2</v>
       </c>
       <c r="X46" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="Y46" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1070</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>335</v>
       </c>
@@ -13978,17 +15406,20 @@
       <c r="V47" t="s">
         <v>871</v>
       </c>
-      <c r="W47" t="s">
-        <v>872</v>
+      <c r="W47">
+        <v>3</v>
       </c>
       <c r="X47" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="Y47" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+        <v>1071</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>319</v>
       </c>
@@ -14051,17 +15482,20 @@
       <c r="V48" t="s">
         <v>871</v>
       </c>
-      <c r="W48" t="s">
-        <v>873</v>
+      <c r="W48">
+        <v>4</v>
       </c>
       <c r="X48" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
       <c r="Y48" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+        <v>1072</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>327</v>
       </c>
@@ -14124,17 +15558,20 @@
       <c r="V49" t="s">
         <v>871</v>
       </c>
-      <c r="W49" t="s">
-        <v>874</v>
+      <c r="W49">
+        <v>1</v>
       </c>
       <c r="X49" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="Y49" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+        <v>1073</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>329</v>
       </c>
@@ -14197,17 +15634,20 @@
       <c r="V50" t="s">
         <v>871</v>
       </c>
-      <c r="W50" t="s">
-        <v>875</v>
+      <c r="W50">
+        <v>2</v>
       </c>
       <c r="X50" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="Y50" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1074</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>323</v>
       </c>
@@ -14270,17 +15710,20 @@
       <c r="V51" t="s">
         <v>871</v>
       </c>
-      <c r="W51" t="s">
-        <v>876</v>
+      <c r="W51">
+        <v>3</v>
       </c>
       <c r="X51" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="Y51" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1075</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>331</v>
       </c>
@@ -14343,17 +15786,20 @@
       <c r="V52" t="s">
         <v>871</v>
       </c>
-      <c r="W52" t="s">
-        <v>877</v>
+      <c r="W52">
+        <v>4</v>
       </c>
       <c r="X52" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="Y52" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>333</v>
       </c>
@@ -14416,17 +15862,20 @@
       <c r="V53" t="s">
         <v>871</v>
       </c>
-      <c r="W53" t="s">
-        <v>878</v>
+      <c r="W53">
+        <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="Y53" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+        <v>1077</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>325</v>
       </c>
@@ -14487,17 +15936,20 @@
       <c r="V54" t="s">
         <v>871</v>
       </c>
-      <c r="W54" t="s">
-        <v>879</v>
+      <c r="W54">
+        <v>2</v>
       </c>
       <c r="X54" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="Y54" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1078</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>303</v>
       </c>
@@ -14560,17 +16012,20 @@
       <c r="V55" t="s">
         <v>871</v>
       </c>
-      <c r="W55" t="s">
-        <v>880</v>
+      <c r="W55">
+        <v>3</v>
       </c>
       <c r="X55" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="Y55" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1079</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>317</v>
       </c>
@@ -14633,17 +16088,20 @@
       <c r="V56" t="s">
         <v>871</v>
       </c>
-      <c r="W56" t="s">
-        <v>881</v>
+      <c r="W56">
+        <v>4</v>
       </c>
       <c r="X56" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="Y56" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>301</v>
       </c>
@@ -14706,17 +16164,20 @@
       <c r="V57" t="s">
         <v>871</v>
       </c>
-      <c r="W57" t="s">
-        <v>872</v>
+      <c r="W57">
+        <v>1</v>
       </c>
       <c r="X57" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="Y57" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1081</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>309</v>
       </c>
@@ -14779,17 +16240,20 @@
       <c r="V58" t="s">
         <v>871</v>
       </c>
-      <c r="W58" t="s">
-        <v>873</v>
+      <c r="W58">
+        <v>2</v>
       </c>
       <c r="X58" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="Y58" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1082</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>311</v>
       </c>
@@ -14852,17 +16316,20 @@
       <c r="V59" t="s">
         <v>871</v>
       </c>
-      <c r="W59" t="s">
-        <v>874</v>
+      <c r="W59">
+        <v>3</v>
       </c>
       <c r="X59" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="Y59" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1083</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>305</v>
       </c>
@@ -14925,17 +16392,20 @@
       <c r="V60" t="s">
         <v>871</v>
       </c>
-      <c r="W60" t="s">
-        <v>875</v>
+      <c r="W60">
+        <v>4</v>
       </c>
       <c r="X60" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="Y60" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1084</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>313</v>
       </c>
@@ -14998,17 +16468,20 @@
       <c r="V61" t="s">
         <v>871</v>
       </c>
-      <c r="W61" t="s">
-        <v>876</v>
+      <c r="W61">
+        <v>1</v>
       </c>
       <c r="X61" t="s">
-        <v>882</v>
+        <v>932</v>
       </c>
       <c r="Y61" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1085</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>315</v>
       </c>
@@ -15071,17 +16544,20 @@
       <c r="V62" t="s">
         <v>871</v>
       </c>
-      <c r="W62" t="s">
-        <v>877</v>
+      <c r="W62">
+        <v>2</v>
       </c>
       <c r="X62" t="s">
-        <v>883</v>
+        <v>933</v>
       </c>
       <c r="Y62" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1086</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>307</v>
       </c>
@@ -15142,17 +16618,20 @@
       <c r="V63" t="s">
         <v>871</v>
       </c>
-      <c r="W63" t="s">
-        <v>878</v>
+      <c r="W63">
+        <v>3</v>
       </c>
       <c r="X63" t="s">
-        <v>884</v>
+        <v>934</v>
       </c>
       <c r="Y63" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>393</v>
       </c>
@@ -15215,17 +16694,20 @@
       <c r="V64" t="s">
         <v>871</v>
       </c>
-      <c r="W64" t="s">
-        <v>879</v>
+      <c r="W64">
+        <v>4</v>
       </c>
       <c r="X64" t="s">
-        <v>885</v>
+        <v>935</v>
       </c>
       <c r="Y64" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1088</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>407</v>
       </c>
@@ -15288,17 +16770,20 @@
       <c r="V65" t="s">
         <v>871</v>
       </c>
-      <c r="W65" t="s">
-        <v>880</v>
+      <c r="W65">
+        <v>1</v>
       </c>
       <c r="X65" t="s">
-        <v>886</v>
+        <v>936</v>
       </c>
       <c r="Y65" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1089</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>391</v>
       </c>
@@ -15361,17 +16846,20 @@
       <c r="V66" t="s">
         <v>871</v>
       </c>
-      <c r="W66" t="s">
-        <v>881</v>
+      <c r="W66">
+        <v>2</v>
       </c>
       <c r="X66" t="s">
-        <v>887</v>
+        <v>937</v>
       </c>
       <c r="Y66" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>399</v>
       </c>
@@ -15434,17 +16922,20 @@
       <c r="V67" t="s">
         <v>871</v>
       </c>
-      <c r="W67" t="s">
-        <v>872</v>
+      <c r="W67">
+        <v>3</v>
       </c>
       <c r="X67" t="s">
-        <v>888</v>
+        <v>938</v>
       </c>
       <c r="Y67" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1091</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>401</v>
       </c>
@@ -15507,17 +16998,20 @@
       <c r="V68" t="s">
         <v>871</v>
       </c>
-      <c r="W68" t="s">
-        <v>873</v>
+      <c r="W68">
+        <v>4</v>
       </c>
       <c r="X68" t="s">
-        <v>889</v>
+        <v>939</v>
       </c>
       <c r="Y68" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1092</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>395</v>
       </c>
@@ -15580,17 +17074,20 @@
       <c r="V69" t="s">
         <v>871</v>
       </c>
-      <c r="W69" t="s">
-        <v>874</v>
+      <c r="W69">
+        <v>1</v>
       </c>
       <c r="X69" t="s">
-        <v>890</v>
+        <v>940</v>
       </c>
       <c r="Y69" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>403</v>
       </c>
@@ -15653,17 +17150,20 @@
       <c r="V70" t="s">
         <v>871</v>
       </c>
-      <c r="W70" t="s">
-        <v>875</v>
+      <c r="W70">
+        <v>2</v>
       </c>
       <c r="X70" t="s">
-        <v>891</v>
+        <v>941</v>
       </c>
       <c r="Y70" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1094</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>405</v>
       </c>
@@ -15726,17 +17226,20 @@
       <c r="V71" t="s">
         <v>871</v>
       </c>
-      <c r="W71" t="s">
-        <v>876</v>
+      <c r="W71">
+        <v>3</v>
       </c>
       <c r="X71" t="s">
-        <v>882</v>
+        <v>942</v>
       </c>
       <c r="Y71" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1095</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>397</v>
       </c>
@@ -15797,17 +17300,20 @@
       <c r="V72" t="s">
         <v>871</v>
       </c>
-      <c r="W72" t="s">
-        <v>877</v>
+      <c r="W72">
+        <v>4</v>
       </c>
       <c r="X72" t="s">
-        <v>883</v>
+        <v>943</v>
       </c>
       <c r="Y72" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1096</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>339</v>
       </c>
@@ -15870,17 +17376,20 @@
       <c r="V73" t="s">
         <v>871</v>
       </c>
-      <c r="W73" t="s">
-        <v>878</v>
+      <c r="W73">
+        <v>1</v>
       </c>
       <c r="X73" t="s">
-        <v>884</v>
+        <v>944</v>
       </c>
       <c r="Y73" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1097</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>353</v>
       </c>
@@ -15943,17 +17452,20 @@
       <c r="V74" t="s">
         <v>871</v>
       </c>
-      <c r="W74" t="s">
-        <v>879</v>
+      <c r="W74">
+        <v>2</v>
       </c>
       <c r="X74" t="s">
-        <v>885</v>
+        <v>945</v>
       </c>
       <c r="Y74" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1098</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>337</v>
       </c>
@@ -16016,17 +17528,20 @@
       <c r="V75" t="s">
         <v>871</v>
       </c>
-      <c r="W75" t="s">
-        <v>880</v>
+      <c r="W75">
+        <v>3</v>
       </c>
       <c r="X75" t="s">
-        <v>886</v>
+        <v>946</v>
       </c>
       <c r="Y75" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1099</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>345</v>
       </c>
@@ -16089,17 +17604,20 @@
       <c r="V76" t="s">
         <v>871</v>
       </c>
-      <c r="W76" t="s">
-        <v>881</v>
+      <c r="W76">
+        <v>4</v>
       </c>
       <c r="X76" t="s">
-        <v>887</v>
+        <v>947</v>
       </c>
       <c r="Y76" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>347</v>
       </c>
@@ -16162,17 +17680,20 @@
       <c r="V77" t="s">
         <v>871</v>
       </c>
-      <c r="W77" t="s">
-        <v>872</v>
+      <c r="W77">
+        <v>1</v>
       </c>
       <c r="X77" t="s">
-        <v>888</v>
+        <v>948</v>
       </c>
       <c r="Y77" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>341</v>
       </c>
@@ -16235,17 +17756,20 @@
       <c r="V78" t="s">
         <v>871</v>
       </c>
-      <c r="W78" t="s">
-        <v>873</v>
+      <c r="W78">
+        <v>2</v>
       </c>
       <c r="X78" t="s">
-        <v>889</v>
+        <v>949</v>
       </c>
       <c r="Y78" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1102</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>349</v>
       </c>
@@ -16308,17 +17832,20 @@
       <c r="V79" t="s">
         <v>871</v>
       </c>
-      <c r="W79" t="s">
-        <v>874</v>
+      <c r="W79">
+        <v>3</v>
       </c>
       <c r="X79" t="s">
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="Y79" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1103</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>351</v>
       </c>
@@ -16381,17 +17908,20 @@
       <c r="V80" t="s">
         <v>871</v>
       </c>
-      <c r="W80" t="s">
-        <v>875</v>
+      <c r="W80">
+        <v>4</v>
       </c>
       <c r="X80" t="s">
-        <v>891</v>
+        <v>951</v>
       </c>
       <c r="Y80" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1104</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>343</v>
       </c>
@@ -16452,17 +17982,20 @@
       <c r="V81" t="s">
         <v>871</v>
       </c>
-      <c r="W81" t="s">
-        <v>876</v>
+      <c r="W81">
+        <v>1</v>
       </c>
       <c r="X81" t="s">
-        <v>882</v>
+        <v>952</v>
       </c>
       <c r="Y81" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1105</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>357</v>
       </c>
@@ -16525,17 +18058,20 @@
       <c r="V82" t="s">
         <v>871</v>
       </c>
-      <c r="W82" t="s">
-        <v>877</v>
+      <c r="W82">
+        <v>2</v>
       </c>
       <c r="X82" t="s">
-        <v>883</v>
+        <v>953</v>
       </c>
       <c r="Y82" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1106</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>371</v>
       </c>
@@ -16598,17 +18134,20 @@
       <c r="V83" t="s">
         <v>871</v>
       </c>
-      <c r="W83" t="s">
-        <v>878</v>
+      <c r="W83">
+        <v>3</v>
       </c>
       <c r="X83" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="Y83" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1107</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>355</v>
       </c>
@@ -16671,17 +18210,20 @@
       <c r="V84" t="s">
         <v>871</v>
       </c>
-      <c r="W84" t="s">
-        <v>879</v>
+      <c r="W84">
+        <v>4</v>
       </c>
       <c r="X84" t="s">
-        <v>885</v>
+        <v>955</v>
       </c>
       <c r="Y84" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1108</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>363</v>
       </c>
@@ -16744,17 +18286,20 @@
       <c r="V85" t="s">
         <v>871</v>
       </c>
-      <c r="W85" t="s">
-        <v>880</v>
+      <c r="W85">
+        <v>1</v>
       </c>
       <c r="X85" t="s">
-        <v>886</v>
+        <v>956</v>
       </c>
       <c r="Y85" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1109</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>365</v>
       </c>
@@ -16817,17 +18362,20 @@
       <c r="V86" t="s">
         <v>871</v>
       </c>
-      <c r="W86" t="s">
-        <v>881</v>
+      <c r="W86">
+        <v>2</v>
       </c>
       <c r="X86" t="s">
-        <v>887</v>
+        <v>957</v>
       </c>
       <c r="Y86" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1110</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>359</v>
       </c>
@@ -16890,17 +18438,20 @@
       <c r="V87" t="s">
         <v>871</v>
       </c>
-      <c r="W87" t="s">
-        <v>872</v>
+      <c r="W87">
+        <v>3</v>
       </c>
       <c r="X87" t="s">
-        <v>888</v>
+        <v>958</v>
       </c>
       <c r="Y87" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1111</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>367</v>
       </c>
@@ -16963,17 +18514,20 @@
       <c r="V88" t="s">
         <v>871</v>
       </c>
-      <c r="W88" t="s">
-        <v>873</v>
+      <c r="W88">
+        <v>4</v>
       </c>
       <c r="X88" t="s">
-        <v>889</v>
+        <v>959</v>
       </c>
       <c r="Y88" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1112</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>369</v>
       </c>
@@ -17036,17 +18590,20 @@
       <c r="V89" t="s">
         <v>871</v>
       </c>
-      <c r="W89" t="s">
-        <v>874</v>
+      <c r="W89">
+        <v>1</v>
       </c>
       <c r="X89" t="s">
-        <v>890</v>
+        <v>960</v>
       </c>
       <c r="Y89" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1113</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="34" t="s">
         <v>361</v>
       </c>
@@ -17107,17 +18664,20 @@
       <c r="V90" t="s">
         <v>871</v>
       </c>
-      <c r="W90" t="s">
-        <v>875</v>
+      <c r="W90">
+        <v>2</v>
       </c>
       <c r="X90" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="Y90" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1114</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -17180,17 +18740,20 @@
       <c r="V91" t="s">
         <v>871</v>
       </c>
-      <c r="W91" t="s">
-        <v>876</v>
+      <c r="W91">
+        <v>3</v>
       </c>
       <c r="X91" t="s">
-        <v>882</v>
+        <v>962</v>
       </c>
       <c r="Y91" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1115</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>389</v>
       </c>
@@ -17253,17 +18816,20 @@
       <c r="V92" t="s">
         <v>871</v>
       </c>
-      <c r="W92" t="s">
-        <v>877</v>
+      <c r="W92">
+        <v>4</v>
       </c>
       <c r="X92" t="s">
-        <v>883</v>
+        <v>963</v>
       </c>
       <c r="Y92" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1116</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>373</v>
       </c>
@@ -17326,17 +18892,20 @@
       <c r="V93" t="s">
         <v>871</v>
       </c>
-      <c r="W93" t="s">
-        <v>872</v>
+      <c r="W93">
+        <v>1</v>
       </c>
       <c r="X93" t="s">
-        <v>884</v>
+        <v>964</v>
       </c>
       <c r="Y93" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1117</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>381</v>
       </c>
@@ -17399,17 +18968,20 @@
       <c r="V94" t="s">
         <v>871</v>
       </c>
-      <c r="W94" t="s">
-        <v>873</v>
+      <c r="W94">
+        <v>2</v>
       </c>
       <c r="X94" t="s">
-        <v>885</v>
+        <v>965</v>
       </c>
       <c r="Y94" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1118</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>383</v>
       </c>
@@ -17472,17 +19044,20 @@
       <c r="V95" t="s">
         <v>871</v>
       </c>
-      <c r="W95" t="s">
-        <v>874</v>
+      <c r="W95">
+        <v>3</v>
       </c>
       <c r="X95" t="s">
-        <v>886</v>
+        <v>966</v>
       </c>
       <c r="Y95" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1119</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>377</v>
       </c>
@@ -17545,17 +19120,20 @@
       <c r="V96" t="s">
         <v>871</v>
       </c>
-      <c r="W96" t="s">
-        <v>875</v>
+      <c r="W96">
+        <v>4</v>
       </c>
       <c r="X96" t="s">
-        <v>887</v>
+        <v>967</v>
       </c>
       <c r="Y96" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>385</v>
       </c>
@@ -17618,17 +19196,20 @@
       <c r="V97" t="s">
         <v>871</v>
       </c>
-      <c r="W97" t="s">
-        <v>876</v>
+      <c r="W97">
+        <v>1</v>
       </c>
       <c r="X97" t="s">
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="Y97" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>387</v>
       </c>
@@ -17691,17 +19272,20 @@
       <c r="V98" t="s">
         <v>871</v>
       </c>
-      <c r="W98" t="s">
-        <v>877</v>
+      <c r="W98">
+        <v>2</v>
       </c>
       <c r="X98" t="s">
-        <v>889</v>
+        <v>969</v>
       </c>
       <c r="Y98" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1122</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>379</v>
       </c>
@@ -17762,17 +19346,20 @@
       <c r="V99" t="s">
         <v>871</v>
       </c>
-      <c r="W99" t="s">
-        <v>878</v>
+      <c r="W99">
+        <v>3</v>
       </c>
       <c r="X99" t="s">
-        <v>890</v>
+        <v>970</v>
       </c>
       <c r="Y99" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1123</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="34" t="s">
         <v>411</v>
       </c>
@@ -17835,17 +19422,20 @@
       <c r="V100" t="s">
         <v>871</v>
       </c>
-      <c r="W100" t="s">
-        <v>879</v>
+      <c r="W100">
+        <v>4</v>
       </c>
       <c r="X100" t="s">
-        <v>891</v>
+        <v>971</v>
       </c>
       <c r="Y100" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>425</v>
       </c>
@@ -17908,17 +19498,20 @@
       <c r="V101" t="s">
         <v>871</v>
       </c>
-      <c r="W101" t="s">
-        <v>880</v>
+      <c r="W101">
+        <v>1</v>
       </c>
       <c r="X101" t="s">
-        <v>882</v>
+        <v>972</v>
       </c>
       <c r="Y101" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>409</v>
       </c>
@@ -17981,17 +19574,20 @@
       <c r="V102" t="s">
         <v>871</v>
       </c>
-      <c r="W102" t="s">
-        <v>881</v>
+      <c r="W102">
+        <v>2</v>
       </c>
       <c r="X102" t="s">
-        <v>883</v>
+        <v>973</v>
       </c>
       <c r="Y102" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1126</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>417</v>
       </c>
@@ -18054,17 +19650,20 @@
       <c r="V103" t="s">
         <v>871</v>
       </c>
-      <c r="W103" t="s">
-        <v>872</v>
+      <c r="W103">
+        <v>3</v>
       </c>
       <c r="X103" t="s">
-        <v>884</v>
+        <v>974</v>
       </c>
       <c r="Y103" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1127</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>419</v>
       </c>
@@ -18127,17 +19726,20 @@
       <c r="V104" t="s">
         <v>871</v>
       </c>
-      <c r="W104" t="s">
-        <v>873</v>
+      <c r="W104">
+        <v>4</v>
       </c>
       <c r="X104" t="s">
-        <v>885</v>
+        <v>975</v>
       </c>
       <c r="Y104" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1128</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>413</v>
       </c>
@@ -18200,17 +19802,20 @@
       <c r="V105" t="s">
         <v>871</v>
       </c>
-      <c r="W105" t="s">
-        <v>874</v>
+      <c r="W105">
+        <v>1</v>
       </c>
       <c r="X105" t="s">
-        <v>886</v>
+        <v>976</v>
       </c>
       <c r="Y105" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1129</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>421</v>
       </c>
@@ -18273,17 +19878,20 @@
       <c r="V106" t="s">
         <v>871</v>
       </c>
-      <c r="W106" t="s">
-        <v>875</v>
+      <c r="W106">
+        <v>2</v>
       </c>
       <c r="X106" t="s">
-        <v>887</v>
+        <v>977</v>
       </c>
       <c r="Y106" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1130</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>423</v>
       </c>
@@ -18346,17 +19954,20 @@
       <c r="V107" t="s">
         <v>871</v>
       </c>
-      <c r="W107" t="s">
-        <v>876</v>
+      <c r="W107">
+        <v>3</v>
       </c>
       <c r="X107" t="s">
-        <v>888</v>
+        <v>978</v>
       </c>
       <c r="Y107" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1131</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>415</v>
       </c>
@@ -18417,17 +20028,20 @@
       <c r="V108" t="s">
         <v>871</v>
       </c>
-      <c r="W108" t="s">
-        <v>877</v>
+      <c r="W108">
+        <v>4</v>
       </c>
       <c r="X108" t="s">
-        <v>889</v>
+        <v>979</v>
       </c>
       <c r="Y108" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1132</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>429</v>
       </c>
@@ -18490,17 +20104,20 @@
       <c r="V109" t="s">
         <v>871</v>
       </c>
-      <c r="W109" t="s">
-        <v>878</v>
+      <c r="W109">
+        <v>1</v>
       </c>
       <c r="X109" t="s">
-        <v>890</v>
+        <v>980</v>
       </c>
       <c r="Y109" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1133</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>443</v>
       </c>
@@ -18563,17 +20180,20 @@
       <c r="V110" t="s">
         <v>871</v>
       </c>
-      <c r="W110" t="s">
-        <v>879</v>
+      <c r="W110">
+        <v>2</v>
       </c>
       <c r="X110" t="s">
-        <v>891</v>
+        <v>981</v>
       </c>
       <c r="Y110" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1134</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>427</v>
       </c>
@@ -18636,17 +20256,20 @@
       <c r="V111" t="s">
         <v>871</v>
       </c>
-      <c r="W111" t="s">
-        <v>880</v>
+      <c r="W111">
+        <v>3</v>
       </c>
       <c r="X111" t="s">
-        <v>882</v>
+        <v>982</v>
       </c>
       <c r="Y111" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1135</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>435</v>
       </c>
@@ -18709,17 +20332,20 @@
       <c r="V112" t="s">
         <v>871</v>
       </c>
-      <c r="W112" t="s">
-        <v>881</v>
+      <c r="W112">
+        <v>4</v>
       </c>
       <c r="X112" t="s">
-        <v>883</v>
+        <v>983</v>
       </c>
       <c r="Y112" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>437</v>
       </c>
@@ -18782,17 +20408,20 @@
       <c r="V113" t="s">
         <v>871</v>
       </c>
-      <c r="W113" t="s">
-        <v>872</v>
+      <c r="W113">
+        <v>1</v>
       </c>
       <c r="X113" t="s">
-        <v>884</v>
+        <v>984</v>
       </c>
       <c r="Y113" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>431</v>
       </c>
@@ -18855,17 +20484,20 @@
       <c r="V114" t="s">
         <v>871</v>
       </c>
-      <c r="W114" t="s">
-        <v>873</v>
+      <c r="W114">
+        <v>2</v>
       </c>
       <c r="X114" t="s">
-        <v>885</v>
+        <v>985</v>
       </c>
       <c r="Y114" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>439</v>
       </c>
@@ -18928,17 +20560,20 @@
       <c r="V115" t="s">
         <v>871</v>
       </c>
-      <c r="W115" t="s">
-        <v>874</v>
+      <c r="W115">
+        <v>3</v>
       </c>
       <c r="X115" t="s">
-        <v>886</v>
+        <v>986</v>
       </c>
       <c r="Y115" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>441</v>
       </c>
@@ -19001,17 +20636,20 @@
       <c r="V116" t="s">
         <v>871</v>
       </c>
-      <c r="W116" t="s">
-        <v>875</v>
+      <c r="W116">
+        <v>4</v>
       </c>
       <c r="X116" t="s">
-        <v>887</v>
+        <v>987</v>
       </c>
       <c r="Y116" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>433</v>
       </c>
@@ -19072,17 +20710,20 @@
       <c r="V117" t="s">
         <v>871</v>
       </c>
-      <c r="W117" t="s">
-        <v>876</v>
+      <c r="W117">
+        <v>1</v>
       </c>
       <c r="X117" t="s">
-        <v>888</v>
+        <v>988</v>
       </c>
       <c r="Y117" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>447</v>
       </c>
@@ -19145,17 +20786,20 @@
       <c r="V118" t="s">
         <v>871</v>
       </c>
-      <c r="W118" t="s">
-        <v>877</v>
+      <c r="W118">
+        <v>2</v>
       </c>
       <c r="X118" t="s">
-        <v>889</v>
+        <v>989</v>
       </c>
       <c r="Y118" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>461</v>
       </c>
@@ -19218,17 +20862,20 @@
       <c r="V119" t="s">
         <v>871</v>
       </c>
-      <c r="W119" t="s">
-        <v>878</v>
+      <c r="W119">
+        <v>3</v>
       </c>
       <c r="X119" t="s">
-        <v>890</v>
+        <v>990</v>
       </c>
       <c r="Y119" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="34" t="s">
         <v>445</v>
       </c>
@@ -19291,17 +20938,20 @@
       <c r="V120" t="s">
         <v>871</v>
       </c>
-      <c r="W120" t="s">
-        <v>879</v>
+      <c r="W120">
+        <v>4</v>
       </c>
       <c r="X120" t="s">
-        <v>891</v>
+        <v>991</v>
       </c>
       <c r="Y120" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>453</v>
       </c>
@@ -19364,17 +21014,20 @@
       <c r="V121" t="s">
         <v>871</v>
       </c>
-      <c r="W121" t="s">
-        <v>880</v>
+      <c r="W121">
+        <v>1</v>
       </c>
       <c r="X121" t="s">
-        <v>882</v>
+        <v>992</v>
       </c>
       <c r="Y121" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>455</v>
       </c>
@@ -19437,17 +21090,20 @@
       <c r="V122" t="s">
         <v>871</v>
       </c>
-      <c r="W122" t="s">
-        <v>881</v>
+      <c r="W122">
+        <v>2</v>
       </c>
       <c r="X122" t="s">
-        <v>883</v>
+        <v>993</v>
       </c>
       <c r="Y122" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>449</v>
       </c>
@@ -19510,17 +21166,20 @@
       <c r="V123" t="s">
         <v>871</v>
       </c>
-      <c r="W123" t="s">
-        <v>872</v>
+      <c r="W123">
+        <v>3</v>
       </c>
       <c r="X123" t="s">
-        <v>884</v>
+        <v>994</v>
       </c>
       <c r="Y123" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>457</v>
       </c>
@@ -19583,17 +21242,20 @@
       <c r="V124" t="s">
         <v>871</v>
       </c>
-      <c r="W124" t="s">
-        <v>873</v>
+      <c r="W124">
+        <v>4</v>
       </c>
       <c r="X124" t="s">
-        <v>885</v>
+        <v>995</v>
       </c>
       <c r="Y124" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1148</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>459</v>
       </c>
@@ -19656,17 +21318,20 @@
       <c r="V125" t="s">
         <v>871</v>
       </c>
-      <c r="W125" t="s">
-        <v>874</v>
+      <c r="W125">
+        <v>1</v>
       </c>
       <c r="X125" t="s">
-        <v>886</v>
+        <v>996</v>
       </c>
       <c r="Y125" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>451</v>
       </c>
@@ -19727,17 +21392,20 @@
       <c r="V126" t="s">
         <v>871</v>
       </c>
-      <c r="W126" t="s">
-        <v>875</v>
+      <c r="W126">
+        <v>2</v>
       </c>
       <c r="X126" t="s">
-        <v>887</v>
+        <v>997</v>
       </c>
       <c r="Y126" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1150</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>465</v>
       </c>
@@ -19800,17 +21468,20 @@
       <c r="V127" t="s">
         <v>871</v>
       </c>
-      <c r="W127" t="s">
-        <v>876</v>
+      <c r="W127">
+        <v>3</v>
       </c>
       <c r="X127" t="s">
-        <v>888</v>
+        <v>998</v>
       </c>
       <c r="Y127" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1151</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>479</v>
       </c>
@@ -19873,17 +21544,20 @@
       <c r="V128" t="s">
         <v>871</v>
       </c>
-      <c r="W128" t="s">
-        <v>877</v>
+      <c r="W128">
+        <v>4</v>
       </c>
       <c r="X128" t="s">
-        <v>889</v>
+        <v>999</v>
       </c>
       <c r="Y128" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1152</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>463</v>
       </c>
@@ -19946,17 +21620,20 @@
       <c r="V129" t="s">
         <v>871</v>
       </c>
-      <c r="W129" t="s">
-        <v>878</v>
+      <c r="W129">
+        <v>1</v>
       </c>
       <c r="X129" t="s">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="Y129" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1153</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>471</v>
       </c>
@@ -20019,17 +21696,20 @@
       <c r="V130" t="s">
         <v>871</v>
       </c>
-      <c r="W130" t="s">
-        <v>879</v>
+      <c r="W130">
+        <v>2</v>
       </c>
       <c r="X130" t="s">
-        <v>891</v>
+        <v>1001</v>
       </c>
       <c r="Y130" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>473</v>
       </c>
@@ -20092,17 +21772,20 @@
       <c r="V131" t="s">
         <v>871</v>
       </c>
-      <c r="W131" t="s">
-        <v>880</v>
+      <c r="W131">
+        <v>3</v>
       </c>
       <c r="X131" t="s">
-        <v>882</v>
+        <v>1002</v>
       </c>
       <c r="Y131" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1155</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>467</v>
       </c>
@@ -20165,17 +21848,20 @@
       <c r="V132" t="s">
         <v>871</v>
       </c>
-      <c r="W132" t="s">
-        <v>881</v>
+      <c r="W132">
+        <v>4</v>
       </c>
       <c r="X132" t="s">
-        <v>883</v>
+        <v>1003</v>
       </c>
       <c r="Y132" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1156</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>475</v>
       </c>
@@ -20238,17 +21924,20 @@
       <c r="V133" t="s">
         <v>871</v>
       </c>
-      <c r="W133" t="s">
-        <v>872</v>
+      <c r="W133">
+        <v>1</v>
       </c>
       <c r="X133" t="s">
-        <v>884</v>
+        <v>1004</v>
       </c>
       <c r="Y133" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1157</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>477</v>
       </c>
@@ -20311,17 +22000,20 @@
       <c r="V134" t="s">
         <v>871</v>
       </c>
-      <c r="W134" t="s">
-        <v>873</v>
+      <c r="W134">
+        <v>2</v>
       </c>
       <c r="X134" t="s">
-        <v>885</v>
+        <v>1005</v>
       </c>
       <c r="Y134" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1158</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>469</v>
       </c>
@@ -20382,17 +22074,20 @@
       <c r="V135" t="s">
         <v>871</v>
       </c>
-      <c r="W135" t="s">
-        <v>874</v>
+      <c r="W135">
+        <v>3</v>
       </c>
       <c r="X135" t="s">
-        <v>886</v>
+        <v>1006</v>
       </c>
       <c r="Y135" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1159</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>483</v>
       </c>
@@ -20455,17 +22150,20 @@
       <c r="V136" t="s">
         <v>871</v>
       </c>
-      <c r="W136" t="s">
-        <v>875</v>
+      <c r="W136">
+        <v>4</v>
       </c>
       <c r="X136" t="s">
-        <v>887</v>
+        <v>1007</v>
       </c>
       <c r="Y136" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>497</v>
       </c>
@@ -20528,17 +22226,20 @@
       <c r="V137" t="s">
         <v>871</v>
       </c>
-      <c r="W137" t="s">
-        <v>876</v>
+      <c r="W137">
+        <v>1</v>
       </c>
       <c r="X137" t="s">
-        <v>888</v>
+        <v>1008</v>
       </c>
       <c r="Y137" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>481</v>
       </c>
@@ -20601,17 +22302,20 @@
       <c r="V138" t="s">
         <v>871</v>
       </c>
-      <c r="W138" t="s">
-        <v>877</v>
+      <c r="W138">
+        <v>2</v>
       </c>
       <c r="X138" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="Y138" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>489</v>
       </c>
@@ -20674,17 +22378,20 @@
       <c r="V139" t="s">
         <v>871</v>
       </c>
-      <c r="W139" t="s">
-        <v>873</v>
+      <c r="W139">
+        <v>3</v>
       </c>
       <c r="X139" t="s">
-        <v>890</v>
+        <v>1010</v>
       </c>
       <c r="Y139" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1163</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
         <v>491</v>
       </c>
@@ -20747,17 +22454,20 @@
       <c r="V140" t="s">
         <v>871</v>
       </c>
-      <c r="W140" t="s">
-        <v>874</v>
+      <c r="W140">
+        <v>4</v>
       </c>
       <c r="X140" t="s">
-        <v>891</v>
+        <v>1011</v>
       </c>
       <c r="Y140" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1164</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>485</v>
       </c>
@@ -20820,17 +22530,20 @@
       <c r="V141" t="s">
         <v>871</v>
       </c>
-      <c r="W141" t="s">
-        <v>875</v>
+      <c r="W141">
+        <v>1</v>
       </c>
       <c r="X141" t="s">
-        <v>882</v>
+        <v>1012</v>
       </c>
       <c r="Y141" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1165</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>493</v>
       </c>
@@ -20893,17 +22606,20 @@
       <c r="V142" t="s">
         <v>871</v>
       </c>
-      <c r="W142" t="s">
-        <v>876</v>
+      <c r="W142">
+        <v>2</v>
       </c>
       <c r="X142" t="s">
-        <v>883</v>
+        <v>1013</v>
       </c>
       <c r="Y142" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1166</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>495</v>
       </c>
@@ -20966,17 +22682,20 @@
       <c r="V143" t="s">
         <v>871</v>
       </c>
-      <c r="W143" t="s">
-        <v>877</v>
+      <c r="W143">
+        <v>3</v>
       </c>
       <c r="X143" t="s">
-        <v>884</v>
+        <v>1014</v>
       </c>
       <c r="Y143" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1167</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>487</v>
       </c>
@@ -21037,17 +22756,20 @@
       <c r="V144" t="s">
         <v>871</v>
       </c>
-      <c r="W144" t="s">
-        <v>878</v>
+      <c r="W144">
+        <v>4</v>
       </c>
       <c r="X144" t="s">
-        <v>885</v>
+        <v>1015</v>
       </c>
       <c r="Y144" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1168</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>79</v>
       </c>
@@ -21110,17 +22832,20 @@
       <c r="V145" t="s">
         <v>871</v>
       </c>
-      <c r="W145" t="s">
-        <v>879</v>
+      <c r="W145">
+        <v>1</v>
       </c>
       <c r="X145" t="s">
-        <v>891</v>
+        <v>1016</v>
       </c>
       <c r="Y145" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1169</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>122</v>
       </c>
@@ -21183,17 +22908,20 @@
       <c r="V146" t="s">
         <v>871</v>
       </c>
-      <c r="W146" t="s">
-        <v>880</v>
+      <c r="W146">
+        <v>2</v>
       </c>
       <c r="X146" t="s">
-        <v>882</v>
+        <v>1017</v>
       </c>
       <c r="Y146" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1170</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>72</v>
       </c>
@@ -21256,17 +22984,20 @@
       <c r="V147" t="s">
         <v>871</v>
       </c>
-      <c r="W147" t="s">
-        <v>881</v>
+      <c r="W147">
+        <v>3</v>
       </c>
       <c r="X147" t="s">
-        <v>883</v>
+        <v>1018</v>
       </c>
       <c r="Y147" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1171</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>113</v>
       </c>
@@ -21329,17 +23060,20 @@
       <c r="V148" t="s">
         <v>871</v>
       </c>
-      <c r="W148" t="s">
-        <v>872</v>
+      <c r="W148">
+        <v>4</v>
       </c>
       <c r="X148" t="s">
-        <v>884</v>
+        <v>1019</v>
       </c>
       <c r="Y148" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1172</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>115</v>
       </c>
@@ -21402,17 +23136,20 @@
       <c r="V149" t="s">
         <v>871</v>
       </c>
-      <c r="W149" t="s">
-        <v>873</v>
+      <c r="W149">
+        <v>1</v>
       </c>
       <c r="X149" t="s">
-        <v>885</v>
+        <v>1020</v>
       </c>
       <c r="Y149" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1173</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="46" t="s">
         <v>85</v>
       </c>
@@ -21475,17 +23212,20 @@
       <c r="V150" t="s">
         <v>871</v>
       </c>
-      <c r="W150" t="s">
-        <v>874</v>
+      <c r="W150">
+        <v>2</v>
       </c>
       <c r="X150" t="s">
-        <v>886</v>
+        <v>1021</v>
       </c>
       <c r="Y150" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1174</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>117</v>
       </c>
@@ -21548,17 +23288,20 @@
       <c r="V151" t="s">
         <v>871</v>
       </c>
-      <c r="W151" t="s">
-        <v>875</v>
+      <c r="W151">
+        <v>3</v>
       </c>
       <c r="X151" t="s">
-        <v>887</v>
+        <v>1022</v>
       </c>
       <c r="Y151" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1175</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>119</v>
       </c>
@@ -21621,17 +23364,20 @@
       <c r="V152" t="s">
         <v>871</v>
       </c>
-      <c r="W152" t="s">
-        <v>876</v>
+      <c r="W152">
+        <v>4</v>
       </c>
       <c r="X152" t="s">
-        <v>888</v>
+        <v>1023</v>
       </c>
       <c r="Y152" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1176</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>91</v>
       </c>
@@ -21692,35 +23438,38 @@
       <c r="V153" t="s">
         <v>871</v>
       </c>
-      <c r="W153" t="s">
-        <v>877</v>
+      <c r="W153">
+        <v>1</v>
       </c>
       <c r="X153" t="s">
-        <v>889</v>
+        <v>1024</v>
       </c>
       <c r="Y153" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1177</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L154" s="50"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L155" s="50"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L156" s="50"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L157" s="50"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L158" s="50"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L159" s="50"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L160" s="50"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">

--- a/Documentacion/Usuariosv3.xlsx
+++ b/Documentacion/Usuariosv3.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10128" windowHeight="996" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10128" windowHeight="996" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$Q$38</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6223" uniqueCount="1391">
   <si>
     <t>id_usuario</t>
   </si>
@@ -4199,6 +4200,9 @@
   </si>
   <si>
     <t>SEIJ0097987991</t>
+  </si>
+  <si>
+    <t>Texto demo de ejemplo_1</t>
   </si>
 </sst>
 </file>
@@ -4440,7 +4444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4525,6 +4529,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4537,14 +4550,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12116,8 +12123,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AU168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12259,16 +12266,16 @@
       <c r="AO1" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP1" s="58">
+      <c r="AP1" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ1" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR1" s="60">
+      <c r="AQ1" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="56">
         <v>256850</v>
       </c>
-      <c r="AS1" s="62" t="s">
+      <c r="AS1" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT1">
@@ -12398,16 +12405,16 @@
       <c r="AO2" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP2" s="58">
+      <c r="AP2" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ2" s="59">
+      <c r="AQ2" s="55">
         <v>4</v>
       </c>
-      <c r="AR2" s="60">
+      <c r="AR2" s="56">
         <v>125820</v>
       </c>
-      <c r="AS2" s="62" t="s">
+      <c r="AS2" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT2">
@@ -12537,16 +12544,16 @@
       <c r="AO3" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP3" s="58">
+      <c r="AP3" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ3" s="59">
+      <c r="AQ3" s="55">
         <v>6</v>
       </c>
-      <c r="AR3" s="60">
+      <c r="AR3" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS3" s="62" t="s">
+      <c r="AS3" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT3">
@@ -12676,16 +12683,16 @@
       <c r="AO4" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP4" s="58">
+      <c r="AP4" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ4" s="59">
+      <c r="AQ4" s="55">
         <v>8</v>
       </c>
-      <c r="AR4" s="60">
+      <c r="AR4" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS4" s="62" t="s">
+      <c r="AS4" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT4">
@@ -12815,16 +12822,16 @@
       <c r="AO5" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP5" s="58">
+      <c r="AP5" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ5" s="59">
+      <c r="AQ5" s="55">
         <v>10</v>
       </c>
-      <c r="AR5" s="60">
+      <c r="AR5" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS5" s="62" t="s">
+      <c r="AS5" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT5">
@@ -12954,16 +12961,16 @@
       <c r="AO6" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP6" s="58">
+      <c r="AP6" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ6" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="60">
+      <c r="AQ6" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS6" s="62" t="s">
+      <c r="AS6" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT6">
@@ -13093,16 +13100,16 @@
       <c r="AO7" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP7" s="58">
+      <c r="AP7" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ7" s="59">
+      <c r="AQ7" s="55">
         <v>4</v>
       </c>
-      <c r="AR7" s="60">
+      <c r="AR7" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS7" s="62" t="s">
+      <c r="AS7" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT7">
@@ -13116,7 +13123,7 @@
       <c r="A8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -13232,16 +13239,16 @@
       <c r="AO8" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP8" s="58">
+      <c r="AP8" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ8" s="59">
+      <c r="AQ8" s="55">
         <v>6</v>
       </c>
-      <c r="AR8" s="60">
+      <c r="AR8" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS8" s="62" t="s">
+      <c r="AS8" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT8">
@@ -13255,7 +13262,7 @@
       <c r="A9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="5" t="s">
         <v>145</v>
       </c>
@@ -13367,16 +13374,16 @@
       <c r="AO9" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP9" s="58">
+      <c r="AP9" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ9" s="59">
+      <c r="AQ9" s="55">
         <v>8</v>
       </c>
-      <c r="AR9" s="60">
+      <c r="AR9" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS9" s="62" t="s">
+      <c r="AS9" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT9">
@@ -13390,7 +13397,7 @@
       <c r="A10" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="61" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -13506,16 +13513,16 @@
       <c r="AO10" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP10" s="61" t="s">
+      <c r="AP10" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ10" s="59">
+      <c r="AQ10" s="55">
         <v>10</v>
       </c>
-      <c r="AR10" s="60">
+      <c r="AR10" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS10" s="62" t="s">
+      <c r="AS10" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT10">
@@ -13529,7 +13536,7 @@
       <c r="A11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="19" t="s">
         <v>211</v>
       </c>
@@ -13643,16 +13650,16 @@
       <c r="AO11" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP11" s="61" t="s">
+      <c r="AP11" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ11" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR11" s="60">
+      <c r="AQ11" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS11" s="62" t="s">
+      <c r="AS11" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT11">
@@ -13666,7 +13673,7 @@
       <c r="A12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -13782,16 +13789,16 @@
       <c r="AO12" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP12" s="61" t="s">
+      <c r="AP12" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ12" s="59">
+      <c r="AQ12" s="55">
         <v>4</v>
       </c>
-      <c r="AR12" s="60">
+      <c r="AR12" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS12" s="62" t="s">
+      <c r="AS12" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT12">
@@ -13805,7 +13812,7 @@
       <c r="A13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="5" t="s">
         <v>166</v>
       </c>
@@ -13919,16 +13926,16 @@
       <c r="AO13" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP13" s="61" t="s">
+      <c r="AP13" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ13" s="59">
+      <c r="AQ13" s="55">
         <v>6</v>
       </c>
-      <c r="AR13" s="60">
+      <c r="AR13" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS13" s="62" t="s">
+      <c r="AS13" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT13">
@@ -13942,7 +13949,7 @@
       <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -14058,16 +14065,16 @@
       <c r="AO14" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP14" s="61" t="s">
+      <c r="AP14" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ14" s="59">
+      <c r="AQ14" s="55">
         <v>8</v>
       </c>
-      <c r="AR14" s="60">
+      <c r="AR14" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS14" s="62" t="s">
+      <c r="AS14" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT14">
@@ -14081,7 +14088,7 @@
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="19" t="s">
         <v>212</v>
       </c>
@@ -14195,16 +14202,16 @@
       <c r="AO15" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP15" s="61" t="s">
+      <c r="AP15" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ15" s="59">
+      <c r="AQ15" s="55">
         <v>10</v>
       </c>
-      <c r="AR15" s="60">
+      <c r="AR15" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS15" s="62" t="s">
+      <c r="AS15" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT15">
@@ -14334,16 +14341,16 @@
       <c r="AO16" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP16" s="58">
+      <c r="AP16" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ16" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR16" s="60">
+      <c r="AQ16" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="56">
         <v>256850</v>
       </c>
-      <c r="AS16" s="62" t="s">
+      <c r="AS16" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT16">
@@ -14473,16 +14480,16 @@
       <c r="AO17" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP17" s="58">
+      <c r="AP17" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ17" s="59">
+      <c r="AQ17" s="55">
         <v>4</v>
       </c>
-      <c r="AR17" s="60">
+      <c r="AR17" s="56">
         <v>125820</v>
       </c>
-      <c r="AS17" s="62" t="s">
+      <c r="AS17" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT17">
@@ -14610,16 +14617,16 @@
       <c r="AO18" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP18" s="58">
+      <c r="AP18" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ18" s="59">
+      <c r="AQ18" s="55">
         <v>6</v>
       </c>
-      <c r="AR18" s="60">
+      <c r="AR18" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS18" s="62" t="s">
+      <c r="AS18" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT18">
@@ -14749,16 +14756,16 @@
       <c r="AO19" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP19" s="58">
+      <c r="AP19" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ19" s="59">
+      <c r="AQ19" s="55">
         <v>8</v>
       </c>
-      <c r="AR19" s="60">
+      <c r="AR19" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS19" s="62" t="s">
+      <c r="AS19" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT19">
@@ -14888,16 +14895,16 @@
       <c r="AO20" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP20" s="58">
+      <c r="AP20" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ20" s="59">
+      <c r="AQ20" s="55">
         <v>10</v>
       </c>
-      <c r="AR20" s="60">
+      <c r="AR20" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS20" s="62" t="s">
+      <c r="AS20" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT20">
@@ -15027,16 +15034,16 @@
       <c r="AO21" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP21" s="58">
+      <c r="AP21" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ21" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR21" s="60">
+      <c r="AQ21" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS21" s="62" t="s">
+      <c r="AS21" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT21">
@@ -15166,16 +15173,16 @@
       <c r="AO22" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP22" s="58">
+      <c r="AP22" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ22" s="59">
+      <c r="AQ22" s="55">
         <v>4</v>
       </c>
-      <c r="AR22" s="60">
+      <c r="AR22" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS22" s="62" t="s">
+      <c r="AS22" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT22">
@@ -15305,16 +15312,16 @@
       <c r="AO23" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP23" s="58">
+      <c r="AP23" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ23" s="59">
+      <c r="AQ23" s="55">
         <v>6</v>
       </c>
-      <c r="AR23" s="60">
+      <c r="AR23" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS23" s="62" t="s">
+      <c r="AS23" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT23">
@@ -15444,16 +15451,16 @@
       <c r="AO24" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP24" s="58">
+      <c r="AP24" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ24" s="59">
+      <c r="AQ24" s="55">
         <v>8</v>
       </c>
-      <c r="AR24" s="60">
+      <c r="AR24" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS24" s="62" t="s">
+      <c r="AS24" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT24">
@@ -15583,16 +15590,16 @@
       <c r="AO25" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP25" s="61" t="s">
+      <c r="AP25" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ25" s="59">
+      <c r="AQ25" s="55">
         <v>10</v>
       </c>
-      <c r="AR25" s="60">
+      <c r="AR25" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS25" s="62" t="s">
+      <c r="AS25" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT25">
@@ -15722,16 +15729,16 @@
       <c r="AO26" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP26" s="61" t="s">
+      <c r="AP26" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ26" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="60">
+      <c r="AQ26" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS26" s="62" t="s">
+      <c r="AS26" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT26">
@@ -15859,16 +15866,16 @@
       <c r="AO27" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP27" s="61" t="s">
+      <c r="AP27" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ27" s="59">
+      <c r="AQ27" s="55">
         <v>4</v>
       </c>
-      <c r="AR27" s="60">
+      <c r="AR27" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS27" s="62" t="s">
+      <c r="AS27" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT27">
@@ -15998,16 +16005,16 @@
       <c r="AO28" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP28" s="61" t="s">
+      <c r="AP28" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ28" s="59">
+      <c r="AQ28" s="55">
         <v>6</v>
       </c>
-      <c r="AR28" s="60">
+      <c r="AR28" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS28" s="62" t="s">
+      <c r="AS28" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT28">
@@ -16137,16 +16144,16 @@
       <c r="AO29" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP29" s="61" t="s">
+      <c r="AP29" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ29" s="59">
+      <c r="AQ29" s="55">
         <v>8</v>
       </c>
-      <c r="AR29" s="60">
+      <c r="AR29" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS29" s="62" t="s">
+      <c r="AS29" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT29">
@@ -16276,16 +16283,16 @@
       <c r="AO30" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP30" s="61" t="s">
+      <c r="AP30" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ30" s="59">
+      <c r="AQ30" s="55">
         <v>10</v>
       </c>
-      <c r="AR30" s="60">
+      <c r="AR30" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS30" s="62" t="s">
+      <c r="AS30" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT30">
@@ -16415,16 +16422,16 @@
       <c r="AO31" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP31" s="58">
+      <c r="AP31" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ31" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR31" s="60">
+      <c r="AQ31" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="56">
         <v>256850</v>
       </c>
-      <c r="AS31" s="62" t="s">
+      <c r="AS31" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT31">
@@ -16554,16 +16561,16 @@
       <c r="AO32" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP32" s="58">
+      <c r="AP32" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ32" s="59">
+      <c r="AQ32" s="55">
         <v>4</v>
       </c>
-      <c r="AR32" s="60">
+      <c r="AR32" s="56">
         <v>125820</v>
       </c>
-      <c r="AS32" s="62" t="s">
+      <c r="AS32" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT32">
@@ -16693,16 +16700,16 @@
       <c r="AO33" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP33" s="58">
+      <c r="AP33" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ33" s="59">
+      <c r="AQ33" s="55">
         <v>6</v>
       </c>
-      <c r="AR33" s="60">
+      <c r="AR33" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS33" s="62" t="s">
+      <c r="AS33" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT33">
@@ -16832,16 +16839,16 @@
       <c r="AO34" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP34" s="58">
+      <c r="AP34" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ34" s="59">
+      <c r="AQ34" s="55">
         <v>8</v>
       </c>
-      <c r="AR34" s="60">
+      <c r="AR34" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS34" s="62" t="s">
+      <c r="AS34" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT34">
@@ -16971,16 +16978,16 @@
       <c r="AO35" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP35" s="58">
+      <c r="AP35" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ35" s="59">
+      <c r="AQ35" s="55">
         <v>10</v>
       </c>
-      <c r="AR35" s="60">
+      <c r="AR35" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS35" s="62" t="s">
+      <c r="AS35" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT35">
@@ -17108,16 +17115,16 @@
       <c r="AO36" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP36" s="58">
+      <c r="AP36" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ36" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR36" s="60">
+      <c r="AQ36" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR36" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS36" s="62" t="s">
+      <c r="AS36" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT36">
@@ -17247,16 +17254,16 @@
       <c r="AO37" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP37" s="58">
+      <c r="AP37" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ37" s="59">
+      <c r="AQ37" s="55">
         <v>4</v>
       </c>
-      <c r="AR37" s="60">
+      <c r="AR37" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS37" s="62" t="s">
+      <c r="AS37" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT37">
@@ -17386,16 +17393,16 @@
       <c r="AO38" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP38" s="58">
+      <c r="AP38" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ38" s="59">
+      <c r="AQ38" s="55">
         <v>6</v>
       </c>
-      <c r="AR38" s="60">
+      <c r="AR38" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS38" s="62" t="s">
+      <c r="AS38" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT38">
@@ -17525,16 +17532,16 @@
       <c r="AO39" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP39" s="58">
+      <c r="AP39" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ39" s="59">
+      <c r="AQ39" s="55">
         <v>8</v>
       </c>
-      <c r="AR39" s="60">
+      <c r="AR39" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS39" s="62" t="s">
+      <c r="AS39" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT39">
@@ -17664,16 +17671,16 @@
       <c r="AO40" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP40" s="61" t="s">
+      <c r="AP40" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ40" s="59">
+      <c r="AQ40" s="55">
         <v>10</v>
       </c>
-      <c r="AR40" s="60">
+      <c r="AR40" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS40" s="62" t="s">
+      <c r="AS40" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT40">
@@ -17803,16 +17810,16 @@
       <c r="AO41" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP41" s="61" t="s">
+      <c r="AP41" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ41" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR41" s="60">
+      <c r="AQ41" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS41" s="62" t="s">
+      <c r="AS41" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT41">
@@ -17939,16 +17946,16 @@
       <c r="AO42" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP42" s="61" t="s">
+      <c r="AP42" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ42" s="59">
+      <c r="AQ42" s="55">
         <v>4</v>
       </c>
-      <c r="AR42" s="60">
+      <c r="AR42" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS42" s="62" t="s">
+      <c r="AS42" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT42">
@@ -18078,16 +18085,16 @@
       <c r="AO43" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP43" s="61" t="s">
+      <c r="AP43" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ43" s="59">
+      <c r="AQ43" s="55">
         <v>6</v>
       </c>
-      <c r="AR43" s="60">
+      <c r="AR43" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS43" s="62" t="s">
+      <c r="AS43" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT43">
@@ -18217,16 +18224,16 @@
       <c r="AO44" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP44" s="61" t="s">
+      <c r="AP44" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ44" s="59">
+      <c r="AQ44" s="55">
         <v>8</v>
       </c>
-      <c r="AR44" s="60">
+      <c r="AR44" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS44" s="62" t="s">
+      <c r="AS44" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT44">
@@ -18354,16 +18361,16 @@
       <c r="AO45" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP45" s="61" t="s">
+      <c r="AP45" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ45" s="59">
+      <c r="AQ45" s="55">
         <v>10</v>
       </c>
-      <c r="AR45" s="60">
+      <c r="AR45" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS45" s="62" t="s">
+      <c r="AS45" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT45">
@@ -18493,16 +18500,16 @@
       <c r="AO46" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP46" s="58">
+      <c r="AP46" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ46" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR46" s="60">
+      <c r="AQ46" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR46" s="56">
         <v>256850</v>
       </c>
-      <c r="AS46" s="62" t="s">
+      <c r="AS46" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT46">
@@ -18632,16 +18639,16 @@
       <c r="AO47" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP47" s="58">
+      <c r="AP47" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ47" s="59">
+      <c r="AQ47" s="55">
         <v>4</v>
       </c>
-      <c r="AR47" s="60">
+      <c r="AR47" s="56">
         <v>125820</v>
       </c>
-      <c r="AS47" s="62" t="s">
+      <c r="AS47" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT47">
@@ -18771,16 +18778,16 @@
       <c r="AO48" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP48" s="58">
+      <c r="AP48" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ48" s="59">
+      <c r="AQ48" s="55">
         <v>6</v>
       </c>
-      <c r="AR48" s="60">
+      <c r="AR48" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS48" s="62" t="s">
+      <c r="AS48" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT48">
@@ -18910,16 +18917,16 @@
       <c r="AO49" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP49" s="58">
+      <c r="AP49" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ49" s="59">
+      <c r="AQ49" s="55">
         <v>8</v>
       </c>
-      <c r="AR49" s="60">
+      <c r="AR49" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS49" s="62" t="s">
+      <c r="AS49" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT49">
@@ -19049,16 +19056,16 @@
       <c r="AO50" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP50" s="58">
+      <c r="AP50" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ50" s="59">
+      <c r="AQ50" s="55">
         <v>10</v>
       </c>
-      <c r="AR50" s="60">
+      <c r="AR50" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS50" s="62" t="s">
+      <c r="AS50" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT50">
@@ -19188,16 +19195,16 @@
       <c r="AO51" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP51" s="58">
+      <c r="AP51" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ51" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR51" s="60">
+      <c r="AQ51" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS51" s="62" t="s">
+      <c r="AS51" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT51">
@@ -19327,16 +19334,16 @@
       <c r="AO52" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP52" s="58">
+      <c r="AP52" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ52" s="59">
+      <c r="AQ52" s="55">
         <v>4</v>
       </c>
-      <c r="AR52" s="60">
+      <c r="AR52" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS52" s="62" t="s">
+      <c r="AS52" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT52">
@@ -19466,16 +19473,16 @@
       <c r="AO53" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP53" s="58">
+      <c r="AP53" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ53" s="59">
+      <c r="AQ53" s="55">
         <v>6</v>
       </c>
-      <c r="AR53" s="60">
+      <c r="AR53" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS53" s="62" t="s">
+      <c r="AS53" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT53">
@@ -19603,16 +19610,16 @@
       <c r="AO54" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP54" s="58">
+      <c r="AP54" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ54" s="59">
+      <c r="AQ54" s="55">
         <v>8</v>
       </c>
-      <c r="AR54" s="60">
+      <c r="AR54" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS54" s="62" t="s">
+      <c r="AS54" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT54">
@@ -19742,16 +19749,16 @@
       <c r="AO55" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP55" s="61" t="s">
+      <c r="AP55" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ55" s="59">
+      <c r="AQ55" s="55">
         <v>10</v>
       </c>
-      <c r="AR55" s="60">
+      <c r="AR55" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS55" s="62" t="s">
+      <c r="AS55" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT55">
@@ -19881,16 +19888,16 @@
       <c r="AO56" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP56" s="61" t="s">
+      <c r="AP56" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ56" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR56" s="60">
+      <c r="AQ56" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS56" s="62" t="s">
+      <c r="AS56" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT56">
@@ -20020,16 +20027,16 @@
       <c r="AO57" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP57" s="61" t="s">
+      <c r="AP57" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ57" s="59">
+      <c r="AQ57" s="55">
         <v>4</v>
       </c>
-      <c r="AR57" s="60">
+      <c r="AR57" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS57" s="62" t="s">
+      <c r="AS57" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT57">
@@ -20159,16 +20166,16 @@
       <c r="AO58" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP58" s="61" t="s">
+      <c r="AP58" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ58" s="59">
+      <c r="AQ58" s="55">
         <v>6</v>
       </c>
-      <c r="AR58" s="60">
+      <c r="AR58" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS58" s="62" t="s">
+      <c r="AS58" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT58">
@@ -20298,16 +20305,16 @@
       <c r="AO59" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP59" s="61" t="s">
+      <c r="AP59" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ59" s="59">
+      <c r="AQ59" s="55">
         <v>8</v>
       </c>
-      <c r="AR59" s="60">
+      <c r="AR59" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS59" s="62" t="s">
+      <c r="AS59" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT59">
@@ -20437,16 +20444,16 @@
       <c r="AO60" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP60" s="61" t="s">
+      <c r="AP60" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ60" s="59">
+      <c r="AQ60" s="55">
         <v>10</v>
       </c>
-      <c r="AR60" s="60">
+      <c r="AR60" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS60" s="62" t="s">
+      <c r="AS60" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT60">
@@ -20576,16 +20583,16 @@
       <c r="AO61" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP61" s="58">
+      <c r="AP61" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ61" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR61" s="60">
+      <c r="AQ61" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR61" s="56">
         <v>256850</v>
       </c>
-      <c r="AS61" s="62" t="s">
+      <c r="AS61" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT61">
@@ -20715,16 +20722,16 @@
       <c r="AO62" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP62" s="58">
+      <c r="AP62" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ62" s="59">
+      <c r="AQ62" s="55">
         <v>4</v>
       </c>
-      <c r="AR62" s="60">
+      <c r="AR62" s="56">
         <v>125820</v>
       </c>
-      <c r="AS62" s="62" t="s">
+      <c r="AS62" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT62">
@@ -20852,16 +20859,16 @@
       <c r="AO63" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP63" s="58">
+      <c r="AP63" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ63" s="59">
+      <c r="AQ63" s="55">
         <v>6</v>
       </c>
-      <c r="AR63" s="60">
+      <c r="AR63" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS63" s="62" t="s">
+      <c r="AS63" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT63">
@@ -20991,16 +20998,16 @@
       <c r="AO64" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP64" s="58">
+      <c r="AP64" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ64" s="59">
+      <c r="AQ64" s="55">
         <v>8</v>
       </c>
-      <c r="AR64" s="60">
+      <c r="AR64" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS64" s="62" t="s">
+      <c r="AS64" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT64">
@@ -21130,16 +21137,16 @@
       <c r="AO65" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP65" s="58">
+      <c r="AP65" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ65" s="59">
+      <c r="AQ65" s="55">
         <v>10</v>
       </c>
-      <c r="AR65" s="60">
+      <c r="AR65" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS65" s="62" t="s">
+      <c r="AS65" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT65">
@@ -21269,16 +21276,16 @@
       <c r="AO66" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP66" s="58">
+      <c r="AP66" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ66" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR66" s="60">
+      <c r="AQ66" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR66" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS66" s="62" t="s">
+      <c r="AS66" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT66">
@@ -21408,16 +21415,16 @@
       <c r="AO67" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP67" s="58">
+      <c r="AP67" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ67" s="59">
+      <c r="AQ67" s="55">
         <v>4</v>
       </c>
-      <c r="AR67" s="60">
+      <c r="AR67" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS67" s="62" t="s">
+      <c r="AS67" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT67">
@@ -21547,16 +21554,16 @@
       <c r="AO68" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP68" s="58">
+      <c r="AP68" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ68" s="59">
+      <c r="AQ68" s="55">
         <v>6</v>
       </c>
-      <c r="AR68" s="60">
+      <c r="AR68" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS68" s="62" t="s">
+      <c r="AS68" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT68">
@@ -21686,16 +21693,16 @@
       <c r="AO69" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP69" s="58">
+      <c r="AP69" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ69" s="59">
+      <c r="AQ69" s="55">
         <v>8</v>
       </c>
-      <c r="AR69" s="60">
+      <c r="AR69" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS69" s="62" t="s">
+      <c r="AS69" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT69">
@@ -21825,16 +21832,16 @@
       <c r="AO70" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP70" s="61" t="s">
+      <c r="AP70" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ70" s="59">
+      <c r="AQ70" s="55">
         <v>10</v>
       </c>
-      <c r="AR70" s="60">
+      <c r="AR70" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS70" s="62" t="s">
+      <c r="AS70" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT70">
@@ -21964,16 +21971,16 @@
       <c r="AO71" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP71" s="61" t="s">
+      <c r="AP71" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ71" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR71" s="60">
+      <c r="AQ71" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR71" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS71" s="62" t="s">
+      <c r="AS71" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT71">
@@ -22101,16 +22108,16 @@
       <c r="AO72" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP72" s="61" t="s">
+      <c r="AP72" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ72" s="59">
+      <c r="AQ72" s="55">
         <v>4</v>
       </c>
-      <c r="AR72" s="60">
+      <c r="AR72" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS72" s="62" t="s">
+      <c r="AS72" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT72">
@@ -22240,16 +22247,16 @@
       <c r="AO73" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP73" s="61" t="s">
+      <c r="AP73" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ73" s="59">
+      <c r="AQ73" s="55">
         <v>6</v>
       </c>
-      <c r="AR73" s="60">
+      <c r="AR73" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS73" s="62" t="s">
+      <c r="AS73" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT73">
@@ -22379,16 +22386,16 @@
       <c r="AO74" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP74" s="61" t="s">
+      <c r="AP74" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ74" s="59">
+      <c r="AQ74" s="55">
         <v>8</v>
       </c>
-      <c r="AR74" s="60">
+      <c r="AR74" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS74" s="62" t="s">
+      <c r="AS74" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT74">
@@ -22518,16 +22525,16 @@
       <c r="AO75" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP75" s="61" t="s">
+      <c r="AP75" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ75" s="59">
+      <c r="AQ75" s="55">
         <v>10</v>
       </c>
-      <c r="AR75" s="60">
+      <c r="AR75" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS75" s="62" t="s">
+      <c r="AS75" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT75">
@@ -22657,16 +22664,16 @@
       <c r="AO76" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP76" s="58">
+      <c r="AP76" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ76" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR76" s="60">
+      <c r="AQ76" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR76" s="56">
         <v>256850</v>
       </c>
-      <c r="AS76" s="62" t="s">
+      <c r="AS76" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT76">
@@ -22796,16 +22803,16 @@
       <c r="AO77" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP77" s="58">
+      <c r="AP77" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ77" s="59">
+      <c r="AQ77" s="55">
         <v>4</v>
       </c>
-      <c r="AR77" s="60">
+      <c r="AR77" s="56">
         <v>125820</v>
       </c>
-      <c r="AS77" s="62" t="s">
+      <c r="AS77" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT77">
@@ -22935,16 +22942,16 @@
       <c r="AO78" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP78" s="58">
+      <c r="AP78" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ78" s="59">
+      <c r="AQ78" s="55">
         <v>6</v>
       </c>
-      <c r="AR78" s="60">
+      <c r="AR78" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS78" s="62" t="s">
+      <c r="AS78" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT78">
@@ -23074,16 +23081,16 @@
       <c r="AO79" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP79" s="58">
+      <c r="AP79" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ79" s="59">
+      <c r="AQ79" s="55">
         <v>8</v>
       </c>
-      <c r="AR79" s="60">
+      <c r="AR79" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS79" s="62" t="s">
+      <c r="AS79" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT79">
@@ -23213,16 +23220,16 @@
       <c r="AO80" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP80" s="58">
+      <c r="AP80" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ80" s="59">
+      <c r="AQ80" s="55">
         <v>10</v>
       </c>
-      <c r="AR80" s="60">
+      <c r="AR80" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS80" s="62" t="s">
+      <c r="AS80" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT80">
@@ -23350,16 +23357,16 @@
       <c r="AO81" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP81" s="58">
+      <c r="AP81" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ81" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR81" s="60">
+      <c r="AQ81" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR81" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS81" s="62" t="s">
+      <c r="AS81" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT81">
@@ -23489,16 +23496,16 @@
       <c r="AO82" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP82" s="58">
+      <c r="AP82" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ82" s="59">
+      <c r="AQ82" s="55">
         <v>4</v>
       </c>
-      <c r="AR82" s="60">
+      <c r="AR82" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS82" s="62" t="s">
+      <c r="AS82" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT82">
@@ -23628,16 +23635,16 @@
       <c r="AO83" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP83" s="58">
+      <c r="AP83" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ83" s="59">
+      <c r="AQ83" s="55">
         <v>6</v>
       </c>
-      <c r="AR83" s="60">
+      <c r="AR83" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS83" s="62" t="s">
+      <c r="AS83" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT83">
@@ -23764,16 +23771,16 @@
       <c r="AO84" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP84" s="58">
+      <c r="AP84" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ84" s="59">
+      <c r="AQ84" s="55">
         <v>8</v>
       </c>
-      <c r="AR84" s="60">
+      <c r="AR84" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS84" s="62" t="s">
+      <c r="AS84" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT84">
@@ -23903,16 +23910,16 @@
       <c r="AO85" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP85" s="61" t="s">
+      <c r="AP85" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ85" s="59">
+      <c r="AQ85" s="55">
         <v>10</v>
       </c>
-      <c r="AR85" s="60">
+      <c r="AR85" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS85" s="62" t="s">
+      <c r="AS85" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT85">
@@ -24042,16 +24049,16 @@
       <c r="AO86" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP86" s="61" t="s">
+      <c r="AP86" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ86" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR86" s="60">
+      <c r="AQ86" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR86" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS86" s="62" t="s">
+      <c r="AS86" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT86">
@@ -24181,16 +24188,16 @@
       <c r="AO87" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP87" s="61" t="s">
+      <c r="AP87" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ87" s="59">
+      <c r="AQ87" s="55">
         <v>4</v>
       </c>
-      <c r="AR87" s="60">
+      <c r="AR87" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS87" s="62" t="s">
+      <c r="AS87" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT87">
@@ -24320,16 +24327,16 @@
       <c r="AO88" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP88" s="61" t="s">
+      <c r="AP88" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ88" s="59">
+      <c r="AQ88" s="55">
         <v>6</v>
       </c>
-      <c r="AR88" s="60">
+      <c r="AR88" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS88" s="62" t="s">
+      <c r="AS88" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT88">
@@ -24459,16 +24466,16 @@
       <c r="AO89" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP89" s="61" t="s">
+      <c r="AP89" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ89" s="59">
+      <c r="AQ89" s="55">
         <v>8</v>
       </c>
-      <c r="AR89" s="60">
+      <c r="AR89" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS89" s="62" t="s">
+      <c r="AS89" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT89">
@@ -24596,16 +24603,16 @@
       <c r="AO90" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP90" s="61" t="s">
+      <c r="AP90" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ90" s="59">
+      <c r="AQ90" s="55">
         <v>10</v>
       </c>
-      <c r="AR90" s="60">
+      <c r="AR90" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS90" s="62" t="s">
+      <c r="AS90" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT90">
@@ -24735,16 +24742,16 @@
       <c r="AO91" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP91" s="58">
+      <c r="AP91" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ91" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR91" s="60">
+      <c r="AQ91" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR91" s="56">
         <v>256850</v>
       </c>
-      <c r="AS91" s="62" t="s">
+      <c r="AS91" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT91">
@@ -24874,16 +24881,16 @@
       <c r="AO92" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP92" s="58">
+      <c r="AP92" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ92" s="59">
+      <c r="AQ92" s="55">
         <v>4</v>
       </c>
-      <c r="AR92" s="60">
+      <c r="AR92" s="56">
         <v>125820</v>
       </c>
-      <c r="AS92" s="62" t="s">
+      <c r="AS92" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT92">
@@ -25013,16 +25020,16 @@
       <c r="AO93" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP93" s="58">
+      <c r="AP93" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ93" s="59">
+      <c r="AQ93" s="55">
         <v>6</v>
       </c>
-      <c r="AR93" s="60">
+      <c r="AR93" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS93" s="62" t="s">
+      <c r="AS93" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT93">
@@ -25152,16 +25159,16 @@
       <c r="AO94" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP94" s="58">
+      <c r="AP94" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ94" s="59">
+      <c r="AQ94" s="55">
         <v>8</v>
       </c>
-      <c r="AR94" s="60">
+      <c r="AR94" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS94" s="62" t="s">
+      <c r="AS94" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT94">
@@ -25291,16 +25298,16 @@
       <c r="AO95" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP95" s="58">
+      <c r="AP95" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ95" s="59">
+      <c r="AQ95" s="55">
         <v>10</v>
       </c>
-      <c r="AR95" s="60">
+      <c r="AR95" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS95" s="62" t="s">
+      <c r="AS95" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT95">
@@ -25430,16 +25437,16 @@
       <c r="AO96" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP96" s="58">
+      <c r="AP96" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ96" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR96" s="60">
+      <c r="AQ96" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR96" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS96" s="62" t="s">
+      <c r="AS96" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT96">
@@ -25569,16 +25576,16 @@
       <c r="AO97" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP97" s="58">
+      <c r="AP97" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ97" s="59">
+      <c r="AQ97" s="55">
         <v>4</v>
       </c>
-      <c r="AR97" s="60">
+      <c r="AR97" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS97" s="62" t="s">
+      <c r="AS97" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT97">
@@ -25708,16 +25715,16 @@
       <c r="AO98" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP98" s="58">
+      <c r="AP98" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ98" s="59">
+      <c r="AQ98" s="55">
         <v>6</v>
       </c>
-      <c r="AR98" s="60">
+      <c r="AR98" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS98" s="62" t="s">
+      <c r="AS98" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT98">
@@ -25845,16 +25852,16 @@
       <c r="AO99" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP99" s="58">
+      <c r="AP99" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ99" s="59">
+      <c r="AQ99" s="55">
         <v>8</v>
       </c>
-      <c r="AR99" s="60">
+      <c r="AR99" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS99" s="62" t="s">
+      <c r="AS99" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT99">
@@ -25984,16 +25991,16 @@
       <c r="AO100" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP100" s="61" t="s">
+      <c r="AP100" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ100" s="59">
+      <c r="AQ100" s="55">
         <v>10</v>
       </c>
-      <c r="AR100" s="60">
+      <c r="AR100" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS100" s="62" t="s">
+      <c r="AS100" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT100">
@@ -26123,16 +26130,16 @@
       <c r="AO101" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP101" s="61" t="s">
+      <c r="AP101" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ101" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR101" s="60">
+      <c r="AQ101" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR101" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS101" s="62" t="s">
+      <c r="AS101" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT101">
@@ -26263,16 +26270,16 @@
       <c r="AO102" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP102" s="61" t="s">
+      <c r="AP102" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ102" s="59">
+      <c r="AQ102" s="55">
         <v>4</v>
       </c>
-      <c r="AR102" s="60">
+      <c r="AR102" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS102" s="62" t="s">
+      <c r="AS102" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT102">
@@ -26402,16 +26409,16 @@
       <c r="AO103" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP103" s="61" t="s">
+      <c r="AP103" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ103" s="59">
+      <c r="AQ103" s="55">
         <v>6</v>
       </c>
-      <c r="AR103" s="60">
+      <c r="AR103" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS103" s="62" t="s">
+      <c r="AS103" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT103">
@@ -26541,16 +26548,16 @@
       <c r="AO104" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP104" s="61" t="s">
+      <c r="AP104" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ104" s="59">
+      <c r="AQ104" s="55">
         <v>8</v>
       </c>
-      <c r="AR104" s="60">
+      <c r="AR104" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS104" s="62" t="s">
+      <c r="AS104" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT104">
@@ -26680,16 +26687,16 @@
       <c r="AO105" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP105" s="61" t="s">
+      <c r="AP105" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ105" s="59">
+      <c r="AQ105" s="55">
         <v>10</v>
       </c>
-      <c r="AR105" s="60">
+      <c r="AR105" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS105" s="62" t="s">
+      <c r="AS105" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT105">
@@ -26819,16 +26826,16 @@
       <c r="AO106" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP106" s="58">
+      <c r="AP106" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ106" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR106" s="60">
+      <c r="AQ106" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR106" s="56">
         <v>256850</v>
       </c>
-      <c r="AS106" s="62" t="s">
+      <c r="AS106" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT106">
@@ -26958,16 +26965,16 @@
       <c r="AO107" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP107" s="58">
+      <c r="AP107" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ107" s="59">
+      <c r="AQ107" s="55">
         <v>4</v>
       </c>
-      <c r="AR107" s="60">
+      <c r="AR107" s="56">
         <v>125820</v>
       </c>
-      <c r="AS107" s="62" t="s">
+      <c r="AS107" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT107">
@@ -27095,16 +27102,16 @@
       <c r="AO108" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP108" s="58">
+      <c r="AP108" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ108" s="59">
+      <c r="AQ108" s="55">
         <v>6</v>
       </c>
-      <c r="AR108" s="60">
+      <c r="AR108" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS108" s="62" t="s">
+      <c r="AS108" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT108">
@@ -27234,16 +27241,16 @@
       <c r="AO109" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP109" s="58">
+      <c r="AP109" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ109" s="59">
+      <c r="AQ109" s="55">
         <v>8</v>
       </c>
-      <c r="AR109" s="60">
+      <c r="AR109" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS109" s="62" t="s">
+      <c r="AS109" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT109">
@@ -27373,16 +27380,16 @@
       <c r="AO110" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP110" s="58">
+      <c r="AP110" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ110" s="59">
+      <c r="AQ110" s="55">
         <v>10</v>
       </c>
-      <c r="AR110" s="60">
+      <c r="AR110" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS110" s="62" t="s">
+      <c r="AS110" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT110">
@@ -27512,16 +27519,16 @@
       <c r="AO111" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP111" s="58">
+      <c r="AP111" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ111" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR111" s="60">
+      <c r="AQ111" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR111" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS111" s="62" t="s">
+      <c r="AS111" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT111">
@@ -27651,16 +27658,16 @@
       <c r="AO112" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP112" s="58">
+      <c r="AP112" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ112" s="59">
+      <c r="AQ112" s="55">
         <v>4</v>
       </c>
-      <c r="AR112" s="60">
+      <c r="AR112" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS112" s="62" t="s">
+      <c r="AS112" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT112">
@@ -27790,16 +27797,16 @@
       <c r="AO113" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP113" s="58">
+      <c r="AP113" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ113" s="59">
+      <c r="AQ113" s="55">
         <v>6</v>
       </c>
-      <c r="AR113" s="60">
+      <c r="AR113" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS113" s="62" t="s">
+      <c r="AS113" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT113">
@@ -27929,16 +27936,16 @@
       <c r="AO114" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP114" s="58">
+      <c r="AP114" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ114" s="59">
+      <c r="AQ114" s="55">
         <v>8</v>
       </c>
-      <c r="AR114" s="60">
+      <c r="AR114" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS114" s="62" t="s">
+      <c r="AS114" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT114">
@@ -28068,16 +28075,16 @@
       <c r="AO115" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP115" s="61" t="s">
+      <c r="AP115" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ115" s="59">
+      <c r="AQ115" s="55">
         <v>10</v>
       </c>
-      <c r="AR115" s="60">
+      <c r="AR115" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS115" s="62" t="s">
+      <c r="AS115" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT115">
@@ -28207,16 +28214,16 @@
       <c r="AO116" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP116" s="61" t="s">
+      <c r="AP116" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ116" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR116" s="60">
+      <c r="AQ116" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR116" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS116" s="62" t="s">
+      <c r="AS116" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT116">
@@ -28344,16 +28351,16 @@
       <c r="AO117" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP117" s="61" t="s">
+      <c r="AP117" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ117" s="59">
+      <c r="AQ117" s="55">
         <v>4</v>
       </c>
-      <c r="AR117" s="60">
+      <c r="AR117" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS117" s="62" t="s">
+      <c r="AS117" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT117">
@@ -28483,16 +28490,16 @@
       <c r="AO118" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP118" s="61" t="s">
+      <c r="AP118" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ118" s="59">
+      <c r="AQ118" s="55">
         <v>6</v>
       </c>
-      <c r="AR118" s="60">
+      <c r="AR118" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS118" s="62" t="s">
+      <c r="AS118" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT118">
@@ -28622,16 +28629,16 @@
       <c r="AO119" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP119" s="61" t="s">
+      <c r="AP119" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ119" s="59">
+      <c r="AQ119" s="55">
         <v>8</v>
       </c>
-      <c r="AR119" s="60">
+      <c r="AR119" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS119" s="62" t="s">
+      <c r="AS119" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT119">
@@ -28761,16 +28768,16 @@
       <c r="AO120" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP120" s="61" t="s">
+      <c r="AP120" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ120" s="59">
+      <c r="AQ120" s="55">
         <v>10</v>
       </c>
-      <c r="AR120" s="60">
+      <c r="AR120" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS120" s="62" t="s">
+      <c r="AS120" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT120">
@@ -28900,16 +28907,16 @@
       <c r="AO121" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP121" s="58">
+      <c r="AP121" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ121" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR121" s="60">
+      <c r="AQ121" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR121" s="56">
         <v>256850</v>
       </c>
-      <c r="AS121" s="62" t="s">
+      <c r="AS121" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT121">
@@ -29039,16 +29046,16 @@
       <c r="AO122" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP122" s="58">
+      <c r="AP122" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ122" s="59">
+      <c r="AQ122" s="55">
         <v>4</v>
       </c>
-      <c r="AR122" s="60">
+      <c r="AR122" s="56">
         <v>125820</v>
       </c>
-      <c r="AS122" s="62" t="s">
+      <c r="AS122" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT122">
@@ -29178,16 +29185,16 @@
       <c r="AO123" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP123" s="58">
+      <c r="AP123" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ123" s="59">
+      <c r="AQ123" s="55">
         <v>6</v>
       </c>
-      <c r="AR123" s="60">
+      <c r="AR123" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS123" s="62" t="s">
+      <c r="AS123" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT123">
@@ -29317,16 +29324,16 @@
       <c r="AO124" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP124" s="58">
+      <c r="AP124" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ124" s="59">
+      <c r="AQ124" s="55">
         <v>8</v>
       </c>
-      <c r="AR124" s="60">
+      <c r="AR124" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS124" s="62" t="s">
+      <c r="AS124" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT124">
@@ -29456,16 +29463,16 @@
       <c r="AO125" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP125" s="58">
+      <c r="AP125" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ125" s="59">
+      <c r="AQ125" s="55">
         <v>10</v>
       </c>
-      <c r="AR125" s="60">
+      <c r="AR125" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS125" s="62" t="s">
+      <c r="AS125" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT125">
@@ -29593,16 +29600,16 @@
       <c r="AO126" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP126" s="58">
+      <c r="AP126" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ126" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR126" s="60">
+      <c r="AQ126" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR126" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS126" s="62" t="s">
+      <c r="AS126" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT126">
@@ -29732,16 +29739,16 @@
       <c r="AO127" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP127" s="58">
+      <c r="AP127" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ127" s="59">
+      <c r="AQ127" s="55">
         <v>4</v>
       </c>
-      <c r="AR127" s="60">
+      <c r="AR127" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS127" s="62" t="s">
+      <c r="AS127" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT127">
@@ -29871,16 +29878,16 @@
       <c r="AO128" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP128" s="58">
+      <c r="AP128" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ128" s="59">
+      <c r="AQ128" s="55">
         <v>6</v>
       </c>
-      <c r="AR128" s="60">
+      <c r="AR128" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS128" s="62" t="s">
+      <c r="AS128" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT128">
@@ -30010,16 +30017,16 @@
       <c r="AO129" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP129" s="58">
+      <c r="AP129" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ129" s="59">
+      <c r="AQ129" s="55">
         <v>8</v>
       </c>
-      <c r="AR129" s="60">
+      <c r="AR129" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS129" s="62" t="s">
+      <c r="AS129" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT129">
@@ -30149,16 +30156,16 @@
       <c r="AO130" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP130" s="61" t="s">
+      <c r="AP130" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ130" s="59">
+      <c r="AQ130" s="55">
         <v>10</v>
       </c>
-      <c r="AR130" s="60">
+      <c r="AR130" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS130" s="62" t="s">
+      <c r="AS130" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT130">
@@ -30288,16 +30295,16 @@
       <c r="AO131" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP131" s="61" t="s">
+      <c r="AP131" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ131" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR131" s="60">
+      <c r="AQ131" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR131" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS131" s="62" t="s">
+      <c r="AS131" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT131">
@@ -30427,16 +30434,16 @@
       <c r="AO132" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP132" s="61" t="s">
+      <c r="AP132" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ132" s="59">
+      <c r="AQ132" s="55">
         <v>4</v>
       </c>
-      <c r="AR132" s="60">
+      <c r="AR132" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS132" s="62" t="s">
+      <c r="AS132" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT132">
@@ -30566,16 +30573,16 @@
       <c r="AO133" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP133" s="61" t="s">
+      <c r="AP133" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ133" s="59">
+      <c r="AQ133" s="55">
         <v>6</v>
       </c>
-      <c r="AR133" s="60">
+      <c r="AR133" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS133" s="62" t="s">
+      <c r="AS133" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT133">
@@ -30705,16 +30712,16 @@
       <c r="AO134" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP134" s="61" t="s">
+      <c r="AP134" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ134" s="59">
+      <c r="AQ134" s="55">
         <v>8</v>
       </c>
-      <c r="AR134" s="60">
+      <c r="AR134" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS134" s="62" t="s">
+      <c r="AS134" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT134">
@@ -30842,16 +30849,16 @@
       <c r="AO135" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP135" s="61" t="s">
+      <c r="AP135" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ135" s="59">
+      <c r="AQ135" s="55">
         <v>10</v>
       </c>
-      <c r="AR135" s="60">
+      <c r="AR135" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS135" s="62" t="s">
+      <c r="AS135" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT135">
@@ -30981,16 +30988,16 @@
       <c r="AO136" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP136" s="58">
+      <c r="AP136" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ136" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR136" s="60">
+      <c r="AQ136" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR136" s="56">
         <v>256850</v>
       </c>
-      <c r="AS136" s="62" t="s">
+      <c r="AS136" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT136">
@@ -31120,16 +31127,16 @@
       <c r="AO137" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP137" s="58">
+      <c r="AP137" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ137" s="59">
+      <c r="AQ137" s="55">
         <v>4</v>
       </c>
-      <c r="AR137" s="60">
+      <c r="AR137" s="56">
         <v>125820</v>
       </c>
-      <c r="AS137" s="62" t="s">
+      <c r="AS137" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT137">
@@ -31259,16 +31266,16 @@
       <c r="AO138" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP138" s="58">
+      <c r="AP138" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ138" s="59">
+      <c r="AQ138" s="55">
         <v>6</v>
       </c>
-      <c r="AR138" s="60">
+      <c r="AR138" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS138" s="62" t="s">
+      <c r="AS138" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT138">
@@ -31398,16 +31405,16 @@
       <c r="AO139" s="32" t="s">
         <v>1369</v>
       </c>
-      <c r="AP139" s="58">
+      <c r="AP139" s="54">
         <v>47886234729</v>
       </c>
-      <c r="AQ139" s="59">
+      <c r="AQ139" s="55">
         <v>8</v>
       </c>
-      <c r="AR139" s="60">
+      <c r="AR139" s="56">
         <v>124987.22</v>
       </c>
-      <c r="AS139" s="62" t="s">
+      <c r="AS139" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT139">
@@ -31537,16 +31544,16 @@
       <c r="AO140" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="AP140" s="58">
+      <c r="AP140" s="54">
         <v>57965482188</v>
       </c>
-      <c r="AQ140" s="59">
+      <c r="AQ140" s="55">
         <v>10</v>
       </c>
-      <c r="AR140" s="60">
+      <c r="AR140" s="56">
         <v>44063.834999999999</v>
       </c>
-      <c r="AS140" s="62" t="s">
+      <c r="AS140" s="58" t="s">
         <v>1386</v>
       </c>
       <c r="AT140">
@@ -31676,16 +31683,16 @@
       <c r="AO141" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP141" s="58">
+      <c r="AP141" s="54">
         <v>68044729647</v>
       </c>
-      <c r="AQ141" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR141" s="60">
+      <c r="AQ141" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR141" s="56">
         <v>81423.323999999906</v>
       </c>
-      <c r="AS141" s="62" t="s">
+      <c r="AS141" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT141">
@@ -31815,16 +31822,16 @@
       <c r="AO142" s="32" t="s">
         <v>1371</v>
       </c>
-      <c r="AP142" s="58">
+      <c r="AP142" s="54">
         <v>78123977106</v>
       </c>
-      <c r="AQ142" s="59">
+      <c r="AQ142" s="55">
         <v>4</v>
       </c>
-      <c r="AR142" s="60">
+      <c r="AR142" s="56">
         <v>41217.186999999998</v>
       </c>
-      <c r="AS142" s="62" t="s">
+      <c r="AS142" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT142">
@@ -31954,16 +31961,16 @@
       <c r="AO143" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="AP143" s="58">
+      <c r="AP143" s="54">
         <v>88203224565</v>
       </c>
-      <c r="AQ143" s="59">
+      <c r="AQ143" s="55">
         <v>6</v>
       </c>
-      <c r="AR143" s="60">
+      <c r="AR143" s="56">
         <v>83857.698000000004</v>
       </c>
-      <c r="AS143" s="62" t="s">
+      <c r="AS143" s="58" t="s">
         <v>1387</v>
       </c>
       <c r="AT143">
@@ -32091,16 +32098,16 @@
       <c r="AO144" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP144" s="58">
+      <c r="AP144" s="54">
         <v>98282472024</v>
       </c>
-      <c r="AQ144" s="59">
+      <c r="AQ144" s="55">
         <v>8</v>
       </c>
-      <c r="AR144" s="60">
+      <c r="AR144" s="56">
         <v>126498.209</v>
       </c>
-      <c r="AS144" s="62" t="s">
+      <c r="AS144" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT144">
@@ -32230,16 +32237,16 @@
       <c r="AO145" s="32" t="s">
         <v>1373</v>
       </c>
-      <c r="AP145" s="61" t="s">
+      <c r="AP145" s="57" t="s">
         <v>1377</v>
       </c>
-      <c r="AQ145" s="59">
+      <c r="AQ145" s="55">
         <v>10</v>
       </c>
-      <c r="AR145" s="60">
+      <c r="AR145" s="56">
         <v>169138.72</v>
       </c>
-      <c r="AS145" s="62" t="s">
+      <c r="AS145" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT145">
@@ -32369,16 +32376,16 @@
       <c r="AO146" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="AP146" s="61" t="s">
+      <c r="AP146" s="57" t="s">
         <v>1378</v>
       </c>
-      <c r="AQ146" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR146" s="60">
+      <c r="AQ146" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR146" s="56">
         <v>211779.231</v>
       </c>
-      <c r="AS146" s="62" t="s">
+      <c r="AS146" s="58" t="s">
         <v>1388</v>
       </c>
       <c r="AT146">
@@ -32508,16 +32515,16 @@
       <c r="AO147" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP147" s="61" t="s">
+      <c r="AP147" s="57" t="s">
         <v>1379</v>
       </c>
-      <c r="AQ147" s="59">
+      <c r="AQ147" s="55">
         <v>4</v>
       </c>
-      <c r="AR147" s="60">
+      <c r="AR147" s="56">
         <v>254419.742</v>
       </c>
-      <c r="AS147" s="62" t="s">
+      <c r="AS147" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT147">
@@ -32647,16 +32654,16 @@
       <c r="AO148" s="32" t="s">
         <v>1375</v>
       </c>
-      <c r="AP148" s="61" t="s">
+      <c r="AP148" s="57" t="s">
         <v>1380</v>
       </c>
-      <c r="AQ148" s="59">
+      <c r="AQ148" s="55">
         <v>6</v>
       </c>
-      <c r="AR148" s="60">
+      <c r="AR148" s="56">
         <v>297060.25300000003</v>
       </c>
-      <c r="AS148" s="62" t="s">
+      <c r="AS148" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT148">
@@ -32786,16 +32793,16 @@
       <c r="AO149" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="AP149" s="61" t="s">
+      <c r="AP149" s="57" t="s">
         <v>1381</v>
       </c>
-      <c r="AQ149" s="59">
+      <c r="AQ149" s="55">
         <v>8</v>
       </c>
-      <c r="AR149" s="60">
+      <c r="AR149" s="56">
         <v>339700.76400000002</v>
       </c>
-      <c r="AS149" s="62" t="s">
+      <c r="AS149" s="58" t="s">
         <v>1389</v>
       </c>
       <c r="AT149">
@@ -32925,16 +32932,16 @@
       <c r="AO150" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP150" s="61" t="s">
+      <c r="AP150" s="57" t="s">
         <v>1382</v>
       </c>
-      <c r="AQ150" s="59">
+      <c r="AQ150" s="55">
         <v>10</v>
       </c>
-      <c r="AR150" s="60">
+      <c r="AR150" s="56">
         <v>382341.27500000002</v>
       </c>
-      <c r="AS150" s="62" t="s">
+      <c r="AS150" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT150">
@@ -33064,16 +33071,16 @@
       <c r="AO151" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="AP151" s="58">
+      <c r="AP151" s="54">
         <v>17648492352</v>
       </c>
-      <c r="AQ151" s="59">
-        <v>2</v>
-      </c>
-      <c r="AR151" s="60">
+      <c r="AQ151" s="55">
+        <v>2</v>
+      </c>
+      <c r="AR151" s="56">
         <v>256850</v>
       </c>
-      <c r="AS151" s="62" t="s">
+      <c r="AS151" s="58" t="s">
         <v>1383</v>
       </c>
       <c r="AT151">
@@ -33203,16 +33210,16 @@
       <c r="AO152" s="32" t="s">
         <v>1367</v>
       </c>
-      <c r="AP152" s="58">
+      <c r="AP152" s="54">
         <v>27727739811</v>
       </c>
-      <c r="AQ152" s="59">
+      <c r="AQ152" s="55">
         <v>4</v>
       </c>
-      <c r="AR152" s="60">
+      <c r="AR152" s="56">
         <v>125820</v>
       </c>
-      <c r="AS152" s="62" t="s">
+      <c r="AS152" s="58" t="s">
         <v>1384</v>
       </c>
       <c r="AT152">
@@ -33340,16 +33347,16 @@
       <c r="AO153" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="AP153" s="58">
+      <c r="AP153" s="54">
         <v>37806987270</v>
       </c>
-      <c r="AQ153" s="59">
+      <c r="AQ153" s="55">
         <v>6</v>
       </c>
-      <c r="AR153" s="60">
+      <c r="AR153" s="56">
         <v>95003.23</v>
       </c>
-      <c r="AS153" s="62" t="s">
+      <c r="AS153" s="58" t="s">
         <v>1385</v>
       </c>
       <c r="AT153">
@@ -33363,106 +33370,106 @@
       <c r="L154" s="50"/>
       <c r="W154" s="51"/>
       <c r="X154" s="51"/>
-      <c r="AP154" s="58"/>
-      <c r="AQ154" s="59"/>
-      <c r="AR154" s="60"/>
+      <c r="AP154" s="54"/>
+      <c r="AQ154" s="55"/>
+      <c r="AR154" s="56"/>
     </row>
     <row r="155" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L155" s="50"/>
       <c r="W155" s="51"/>
       <c r="X155" s="51"/>
-      <c r="AP155" s="58"/>
-      <c r="AQ155" s="59"/>
-      <c r="AR155" s="60"/>
+      <c r="AP155" s="54"/>
+      <c r="AQ155" s="55"/>
+      <c r="AR155" s="56"/>
     </row>
     <row r="156" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L156" s="50"/>
       <c r="W156" s="51"/>
       <c r="X156" s="51"/>
-      <c r="AP156" s="58"/>
-      <c r="AQ156" s="59"/>
-      <c r="AR156" s="60"/>
+      <c r="AP156" s="54"/>
+      <c r="AQ156" s="55"/>
+      <c r="AR156" s="56"/>
     </row>
     <row r="157" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L157" s="50"/>
       <c r="W157" s="51"/>
       <c r="X157" s="51"/>
       <c r="Y157" s="51"/>
-      <c r="AP157" s="58"/>
-      <c r="AQ157" s="59"/>
-      <c r="AR157" s="60"/>
+      <c r="AP157" s="54"/>
+      <c r="AQ157" s="55"/>
+      <c r="AR157" s="56"/>
     </row>
     <row r="158" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L158" s="50"/>
       <c r="W158" s="51"/>
       <c r="X158" s="51"/>
       <c r="Y158" s="51"/>
-      <c r="AP158" s="58"/>
-      <c r="AQ158" s="59"/>
-      <c r="AR158" s="60"/>
+      <c r="AP158" s="54"/>
+      <c r="AQ158" s="55"/>
+      <c r="AR158" s="56"/>
     </row>
     <row r="159" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L159" s="50"/>
       <c r="W159" s="51"/>
       <c r="X159" s="51"/>
       <c r="Y159" s="51"/>
-      <c r="AP159" s="58"/>
-      <c r="AQ159" s="59"/>
-      <c r="AR159" s="60"/>
+      <c r="AP159" s="54"/>
+      <c r="AQ159" s="55"/>
+      <c r="AR159" s="56"/>
     </row>
     <row r="160" spans="1:47" x14ac:dyDescent="0.3">
       <c r="L160" s="50"/>
       <c r="W160" s="51"/>
       <c r="X160" s="51"/>
       <c r="Y160" s="51"/>
-      <c r="AP160" s="61"/>
-      <c r="AQ160" s="59"/>
-      <c r="AR160" s="60"/>
+      <c r="AP160" s="57"/>
+      <c r="AQ160" s="55"/>
+      <c r="AR160" s="56"/>
     </row>
     <row r="161" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L161" s="50"/>
       <c r="W161" s="51"/>
       <c r="X161" s="51"/>
       <c r="Y161" s="51"/>
-      <c r="AP161" s="61"/>
-      <c r="AQ161" s="59"/>
-      <c r="AR161" s="60"/>
+      <c r="AP161" s="57"/>
+      <c r="AQ161" s="55"/>
+      <c r="AR161" s="56"/>
     </row>
     <row r="162" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L162" s="50"/>
       <c r="W162" s="51"/>
       <c r="X162" s="51"/>
       <c r="Y162" s="51"/>
-      <c r="AP162" s="61"/>
-      <c r="AQ162" s="59"/>
-      <c r="AR162" s="60"/>
+      <c r="AP162" s="57"/>
+      <c r="AQ162" s="55"/>
+      <c r="AR162" s="56"/>
     </row>
     <row r="163" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L163" s="50"/>
       <c r="W163" s="51"/>
       <c r="X163" s="51"/>
       <c r="Y163" s="51"/>
-      <c r="AP163" s="61"/>
-      <c r="AQ163" s="59"/>
-      <c r="AR163" s="60"/>
+      <c r="AP163" s="57"/>
+      <c r="AQ163" s="55"/>
+      <c r="AR163" s="56"/>
     </row>
     <row r="164" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L164" s="50"/>
       <c r="W164" s="51"/>
       <c r="X164" s="51"/>
       <c r="Y164" s="51"/>
-      <c r="AP164" s="61"/>
-      <c r="AQ164" s="59"/>
-      <c r="AR164" s="60"/>
+      <c r="AP164" s="57"/>
+      <c r="AQ164" s="55"/>
+      <c r="AR164" s="56"/>
     </row>
     <row r="165" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L165" s="50"/>
       <c r="W165" s="51"/>
       <c r="X165" s="51"/>
       <c r="Y165" s="51"/>
-      <c r="AP165" s="61"/>
-      <c r="AQ165" s="59"/>
-      <c r="AR165" s="60"/>
+      <c r="AP165" s="57"/>
+      <c r="AQ165" s="55"/>
+      <c r="AR165" s="56"/>
     </row>
     <row r="166" spans="12:44" x14ac:dyDescent="0.3">
       <c r="L166" s="50"/>
@@ -33483,4 +33490,3551 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>103</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>106</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>111</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>112</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>113</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>116</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>118</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>119</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>121</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>122</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>123</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>124</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>125</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>126</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>127</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>128</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>129</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>130</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>131</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>133</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>134</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>135</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>136</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>137</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>138</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>139</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>141</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>142</v>
+      </c>
+      <c r="F43" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>143</v>
+      </c>
+      <c r="F44" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>144</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>145</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>146</v>
+      </c>
+      <c r="F47" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>147</v>
+      </c>
+      <c r="F48" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>148</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>149</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>151</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>152</v>
+      </c>
+      <c r="F53" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>153</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>154</v>
+      </c>
+      <c r="F55" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>155</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>156</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>157</v>
+      </c>
+      <c r="F58" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>158</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>159</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>160</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>161</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>162</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>163</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>164</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>165</v>
+      </c>
+      <c r="F66" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>166</v>
+      </c>
+      <c r="F67" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>167</v>
+      </c>
+      <c r="F68" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>168</v>
+      </c>
+      <c r="F69" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>169</v>
+      </c>
+      <c r="F70" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>170</v>
+      </c>
+      <c r="F71" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>171</v>
+      </c>
+      <c r="F72" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>172</v>
+      </c>
+      <c r="F73" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>173</v>
+      </c>
+      <c r="F74" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>174</v>
+      </c>
+      <c r="F75" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>175</v>
+      </c>
+      <c r="F76" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>176</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>177</v>
+      </c>
+      <c r="F78" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>178</v>
+      </c>
+      <c r="F79" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>179</v>
+      </c>
+      <c r="F80" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>180</v>
+      </c>
+      <c r="F81" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>181</v>
+      </c>
+      <c r="F82" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>182</v>
+      </c>
+      <c r="F83" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>183</v>
+      </c>
+      <c r="F84" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>184</v>
+      </c>
+      <c r="F85" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>185</v>
+      </c>
+      <c r="F86" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>186</v>
+      </c>
+      <c r="F87" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>187</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>188</v>
+      </c>
+      <c r="F89" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>189</v>
+      </c>
+      <c r="F90" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>190</v>
+      </c>
+      <c r="F91" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>191</v>
+      </c>
+      <c r="F92" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>192</v>
+      </c>
+      <c r="F93" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>193</v>
+      </c>
+      <c r="F94" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>194</v>
+      </c>
+      <c r="F95" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>195</v>
+      </c>
+      <c r="F96" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>196</v>
+      </c>
+      <c r="F97" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>197</v>
+      </c>
+      <c r="F98" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>198</v>
+      </c>
+      <c r="F99" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>199</v>
+      </c>
+      <c r="F100" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>200</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>201</v>
+      </c>
+      <c r="F102" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>202</v>
+      </c>
+      <c r="F103" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>203</v>
+      </c>
+      <c r="F104" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B105" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>204</v>
+      </c>
+      <c r="F105" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B106" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>205</v>
+      </c>
+      <c r="F106" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>206</v>
+      </c>
+      <c r="F107" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>207</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>208</v>
+      </c>
+      <c r="F109" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>209</v>
+      </c>
+      <c r="F110" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B111" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>210</v>
+      </c>
+      <c r="F111" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B112" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>211</v>
+      </c>
+      <c r="F112" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>212</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>213</v>
+      </c>
+      <c r="F114" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B115" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>214</v>
+      </c>
+      <c r="F115" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>215</v>
+      </c>
+      <c r="F116" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B117" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>216</v>
+      </c>
+      <c r="F117" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B118" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>217</v>
+      </c>
+      <c r="F118" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B119" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>218</v>
+      </c>
+      <c r="F119" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>219</v>
+      </c>
+      <c r="F120" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>220</v>
+      </c>
+      <c r="F121" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>221</v>
+      </c>
+      <c r="F122" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>222</v>
+      </c>
+      <c r="F123" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>223</v>
+      </c>
+      <c r="F124" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B125" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>224</v>
+      </c>
+      <c r="F125" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>225</v>
+      </c>
+      <c r="F126" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B127" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>226</v>
+      </c>
+      <c r="F127" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>227</v>
+      </c>
+      <c r="F128" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>228</v>
+      </c>
+      <c r="F129" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>229</v>
+      </c>
+      <c r="F130" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>230</v>
+      </c>
+      <c r="F131" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>231</v>
+      </c>
+      <c r="F132" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B133" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>232</v>
+      </c>
+      <c r="F133" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B134" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>233</v>
+      </c>
+      <c r="F134" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B135" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>234</v>
+      </c>
+      <c r="F135" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>235</v>
+      </c>
+      <c r="F136" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B137" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>236</v>
+      </c>
+      <c r="F137" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B138" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>237</v>
+      </c>
+      <c r="F138" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B139" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>238</v>
+      </c>
+      <c r="F139" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="B140" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>239</v>
+      </c>
+      <c r="F140" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B141" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>240</v>
+      </c>
+      <c r="F141" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B142" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>241</v>
+      </c>
+      <c r="F142" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B143" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>242</v>
+      </c>
+      <c r="F143" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>243</v>
+      </c>
+      <c r="F144" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>244</v>
+      </c>
+      <c r="F145" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>245</v>
+      </c>
+      <c r="F146" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>246</v>
+      </c>
+      <c r="F147" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>247</v>
+      </c>
+      <c r="F148" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>248</v>
+      </c>
+      <c r="F149" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>249</v>
+      </c>
+      <c r="F150" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>250</v>
+      </c>
+      <c r="F151" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>251</v>
+      </c>
+      <c r="F152" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>252</v>
+      </c>
+      <c r="F153" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D154" s="51"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D155" s="51"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D156" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentacion/Usuariosv3.xlsx
+++ b/Documentacion/Usuariosv3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6223" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="1544">
   <si>
     <t>id_usuario</t>
   </si>
@@ -4203,6 +4203,465 @@
   </si>
   <si>
     <t>Texto demo de ejemplo_1</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_1</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_2</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_3</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_4</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_5</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_6</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_7</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_8</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_9</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_10</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_11</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_12</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_13</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_14</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_15</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_16</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_17</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_18</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_19</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_20</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_21</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_22</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_23</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_24</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_25</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_26</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_27</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_28</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_29</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_30</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_31</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_32</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_33</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_34</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_35</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_36</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_37</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_38</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_39</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_40</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_41</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_42</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_43</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_44</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_45</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_46</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_47</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_48</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_49</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_50</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_51</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_52</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_53</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_54</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_55</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_56</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_57</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_58</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_59</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_60</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_61</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_62</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_63</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_64</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_65</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_66</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_67</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_68</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_69</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_70</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_71</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_72</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_73</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_74</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_75</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_76</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_77</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_78</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_79</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_80</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_81</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_82</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_83</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_84</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_85</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_86</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_87</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_88</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_89</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_90</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_91</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_92</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_93</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_94</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_95</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_96</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_97</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_98</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_99</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_100</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_101</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_102</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_103</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_104</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_105</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_106</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_107</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_108</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_109</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_110</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_111</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_112</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_113</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_114</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_115</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_116</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_117</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_118</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_119</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_120</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_121</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_122</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_123</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_124</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_125</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_126</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_127</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_128</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_129</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_130</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_131</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_132</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_133</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_134</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_135</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_136</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_137</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_138</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_139</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_140</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_141</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_142</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_143</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_144</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_145</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_146</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_147</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_148</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_149</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_150</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_151</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_152</t>
+  </si>
+  <si>
+    <t>Demo de las estrategias_153</t>
   </si>
 </sst>
 </file>
@@ -4538,6 +4997,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4549,9 +5011,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12124,11 +12583,14 @@
   <dimension ref="A1:AU168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="64.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -13123,7 +13585,7 @@
       <c r="A8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -13262,7 +13724,7 @@
       <c r="A9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="5" t="s">
         <v>145</v>
       </c>
@@ -13397,7 +13859,7 @@
       <c r="A10" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -13536,7 +13998,7 @@
       <c r="A11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="19" t="s">
         <v>211</v>
       </c>
@@ -13673,7 +14135,7 @@
       <c r="A12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -13812,7 +14274,7 @@
       <c r="A13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="5" t="s">
         <v>166</v>
       </c>
@@ -13949,7 +14411,7 @@
       <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -14088,7 +14550,7 @@
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="19" t="s">
         <v>212</v>
       </c>
@@ -33494,18 +33956,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M154" sqref="M154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>147</v>
       </c>
@@ -33521,14 +33984,32 @@
       <c r="E1">
         <v>100</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>154</v>
       </c>
@@ -33544,14 +34025,32 @@
       <c r="E2">
         <v>101</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>146</v>
       </c>
@@ -33567,14 +34066,32 @@
       <c r="E3">
         <v>102</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>150</v>
       </c>
@@ -33590,14 +34107,32 @@
       <c r="E4">
         <v>103</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>151</v>
       </c>
@@ -33613,14 +34148,32 @@
       <c r="E5">
         <v>104</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>148</v>
       </c>
@@ -33636,14 +34189,32 @@
       <c r="E6">
         <v>105</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>152</v>
       </c>
@@ -33659,14 +34230,32 @@
       <c r="E7">
         <v>106</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>153</v>
       </c>
@@ -33682,14 +34271,32 @@
       <c r="E8">
         <v>107</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>157</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>149</v>
       </c>
@@ -33705,14 +34312,32 @@
       <c r="E9">
         <v>108</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>169</v>
       </c>
@@ -33728,14 +34353,32 @@
       <c r="E10">
         <v>109</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>159</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>176</v>
       </c>
@@ -33751,14 +34394,32 @@
       <c r="E11">
         <v>110</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>168</v>
       </c>
@@ -33774,14 +34435,32 @@
       <c r="E12">
         <v>111</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>161</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J12">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>172</v>
       </c>
@@ -33797,14 +34476,32 @@
       <c r="E13">
         <v>112</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>162</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
@@ -33820,14 +34517,32 @@
       <c r="E14">
         <v>113</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>163</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
@@ -33843,14 +34558,32 @@
       <c r="E15">
         <v>114</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -33866,14 +34599,32 @@
       <c r="E16">
         <v>115</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>165</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>175</v>
       </c>
@@ -33889,14 +34640,32 @@
       <c r="E17">
         <v>116</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J17">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>171</v>
       </c>
@@ -33912,14 +34681,32 @@
       <c r="E18">
         <v>117</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J18">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>190</v>
       </c>
@@ -33935,14 +34722,32 @@
       <c r="E19">
         <v>118</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J19">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>204</v>
       </c>
@@ -33958,14 +34763,32 @@
       <c r="E20">
         <v>119</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>169</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J20">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>188</v>
       </c>
@@ -33981,14 +34804,32 @@
       <c r="E21">
         <v>120</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>196</v>
       </c>
@@ -34004,14 +34845,32 @@
       <c r="E22">
         <v>121</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J22">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>198</v>
       </c>
@@ -34027,14 +34886,32 @@
       <c r="E23">
         <v>122</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>172</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J23">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>192</v>
       </c>
@@ -34050,14 +34927,32 @@
       <c r="E24">
         <v>123</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J24">
+        <v>33</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>200</v>
       </c>
@@ -34073,14 +34968,32 @@
       <c r="E25">
         <v>124</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>174</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J25">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>202</v>
       </c>
@@ -34096,14 +35009,32 @@
       <c r="E26">
         <v>125</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>175</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J26">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>194</v>
       </c>
@@ -34119,14 +35050,32 @@
       <c r="E27">
         <v>126</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>176</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>285</v>
       </c>
@@ -34142,14 +35091,32 @@
       <c r="E28">
         <v>127</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>299</v>
       </c>
@@ -34165,14 +35132,32 @@
       <c r="E29">
         <v>128</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>178</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>283</v>
       </c>
@@ -34188,14 +35173,32 @@
       <c r="E30">
         <v>129</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>179</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>291</v>
       </c>
@@ -34211,14 +35214,32 @@
       <c r="E31">
         <v>130</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>180</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>293</v>
       </c>
@@ -34234,14 +35255,32 @@
       <c r="E32">
         <v>131</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>181</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>287</v>
       </c>
@@ -34257,14 +35296,32 @@
       <c r="E33">
         <v>132</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>182</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>295</v>
       </c>
@@ -34280,14 +35337,32 @@
       <c r="E34">
         <v>133</v>
       </c>
-      <c r="F34" s="63" t="s">
+      <c r="F34" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>183</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>297</v>
       </c>
@@ -34303,14 +35378,32 @@
       <c r="E35">
         <v>134</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>184</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>289</v>
       </c>
@@ -34326,14 +35419,32 @@
       <c r="E36">
         <v>135</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>185</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>266</v>
       </c>
@@ -34349,14 +35460,32 @@
       <c r="E37">
         <v>136</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>186</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>273</v>
       </c>
@@ -34372,14 +35501,32 @@
       <c r="E38">
         <v>137</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>187</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>265</v>
       </c>
@@ -34395,14 +35542,32 @@
       <c r="E39">
         <v>138</v>
       </c>
-      <c r="F39" s="63" t="s">
+      <c r="F39" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J39">
+        <v>21</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="34" t="s">
         <v>269</v>
       </c>
@@ -34418,14 +35583,32 @@
       <c r="E40">
         <v>139</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>270</v>
       </c>
@@ -34441,14 +35624,32 @@
       <c r="E41">
         <v>140</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J41">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>267</v>
       </c>
@@ -34464,14 +35665,32 @@
       <c r="E42">
         <v>141</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>271</v>
       </c>
@@ -34487,14 +35706,32 @@
       <c r="E43">
         <v>142</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>192</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>272</v>
       </c>
@@ -34510,14 +35747,32 @@
       <c r="E44">
         <v>143</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>193</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J44">
+        <v>26</v>
+      </c>
+      <c r="K44">
+        <v>8</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>268</v>
       </c>
@@ -34533,14 +35788,32 @@
       <c r="E45">
         <v>144</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>194</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J45">
+        <v>27</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>321</v>
       </c>
@@ -34556,14 +35829,32 @@
       <c r="E46">
         <v>145</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>195</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J46">
+        <v>28</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>335</v>
       </c>
@@ -34579,14 +35870,32 @@
       <c r="E47">
         <v>146</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>196</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J47">
+        <v>29</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>319</v>
       </c>
@@ -34602,14 +35911,32 @@
       <c r="E48">
         <v>147</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>197</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J48">
+        <v>30</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>327</v>
       </c>
@@ -34625,14 +35952,32 @@
       <c r="E49">
         <v>148</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>198</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J49">
+        <v>31</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>329</v>
       </c>
@@ -34648,14 +35993,32 @@
       <c r="E50">
         <v>149</v>
       </c>
-      <c r="F50" s="63" t="s">
+      <c r="F50" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>199</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J50">
+        <v>32</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>323</v>
       </c>
@@ -34671,14 +36034,32 @@
       <c r="E51">
         <v>150</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J51">
+        <v>33</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>331</v>
       </c>
@@ -34694,14 +36075,32 @@
       <c r="E52">
         <v>151</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>201</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J52">
+        <v>34</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>333</v>
       </c>
@@ -34717,14 +36116,32 @@
       <c r="E53">
         <v>152</v>
       </c>
-      <c r="F53" s="63" t="s">
+      <c r="F53" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>202</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J53">
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>325</v>
       </c>
@@ -34740,14 +36157,32 @@
       <c r="E54">
         <v>153</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>203</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J54">
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>303</v>
       </c>
@@ -34763,14 +36198,32 @@
       <c r="E55">
         <v>154</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>204</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>317</v>
       </c>
@@ -34786,14 +36239,32 @@
       <c r="E56">
         <v>155</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>301</v>
       </c>
@@ -34809,14 +36280,32 @@
       <c r="E57">
         <v>156</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>309</v>
       </c>
@@ -34832,14 +36321,32 @@
       <c r="E58">
         <v>157</v>
       </c>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>207</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>311</v>
       </c>
@@ -34855,14 +36362,32 @@
       <c r="E59">
         <v>158</v>
       </c>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J59">
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>305</v>
       </c>
@@ -34878,14 +36403,32 @@
       <c r="E60">
         <v>159</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>209</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J60">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>12</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+      <c r="M60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>313</v>
       </c>
@@ -34901,14 +36444,32 @@
       <c r="E61">
         <v>160</v>
       </c>
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>210</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J61">
+        <v>16</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>9</v>
+      </c>
+      <c r="M61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>315</v>
       </c>
@@ -34924,14 +36485,32 @@
       <c r="E62">
         <v>161</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>211</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J62">
+        <v>17</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>307</v>
       </c>
@@ -34947,14 +36526,32 @@
       <c r="E63">
         <v>162</v>
       </c>
-      <c r="F63" s="63" t="s">
+      <c r="F63" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>212</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J63">
+        <v>18</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>393</v>
       </c>
@@ -34970,14 +36567,32 @@
       <c r="E64">
         <v>163</v>
       </c>
-      <c r="F64" s="63" t="s">
+      <c r="F64" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>213</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J64">
+        <v>19</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>407</v>
       </c>
@@ -34993,14 +36608,32 @@
       <c r="E65">
         <v>164</v>
       </c>
-      <c r="F65" s="63" t="s">
+      <c r="F65" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>214</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>9</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>391</v>
       </c>
@@ -35016,14 +36649,32 @@
       <c r="E66">
         <v>165</v>
       </c>
-      <c r="F66" s="63" t="s">
+      <c r="F66" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>215</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J66">
+        <v>21</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>399</v>
       </c>
@@ -35039,14 +36690,32 @@
       <c r="E67">
         <v>166</v>
       </c>
-      <c r="F67" s="63" t="s">
+      <c r="F67" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>216</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J67">
+        <v>22</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>401</v>
       </c>
@@ -35062,14 +36731,32 @@
       <c r="E68">
         <v>167</v>
       </c>
-      <c r="F68" s="63" t="s">
+      <c r="F68" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J68">
+        <v>23</v>
+      </c>
+      <c r="K68">
+        <v>8</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>395</v>
       </c>
@@ -35085,14 +36772,32 @@
       <c r="E69">
         <v>168</v>
       </c>
-      <c r="F69" s="63" t="s">
+      <c r="F69" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>218</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J69">
+        <v>24</v>
+      </c>
+      <c r="K69">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>403</v>
       </c>
@@ -35108,14 +36813,32 @@
       <c r="E70">
         <v>169</v>
       </c>
-      <c r="F70" s="63" t="s">
+      <c r="F70" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>219</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>405</v>
       </c>
@@ -35131,14 +36854,32 @@
       <c r="E71">
         <v>170</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>220</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J71">
+        <v>26</v>
+      </c>
+      <c r="K71">
+        <v>11</v>
+      </c>
+      <c r="L71">
+        <v>8</v>
+      </c>
+      <c r="M71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>397</v>
       </c>
@@ -35154,14 +36895,32 @@
       <c r="E72">
         <v>171</v>
       </c>
-      <c r="F72" s="63" t="s">
+      <c r="F72" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>221</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J72">
+        <v>27</v>
+      </c>
+      <c r="K72">
+        <v>12</v>
+      </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
+      <c r="M72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>339</v>
       </c>
@@ -35177,14 +36936,32 @@
       <c r="E73">
         <v>172</v>
       </c>
-      <c r="F73" s="63" t="s">
+      <c r="F73" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>222</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J73">
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>353</v>
       </c>
@@ -35200,14 +36977,32 @@
       <c r="E74">
         <v>173</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>223</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J74">
+        <v>29</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>337</v>
       </c>
@@ -35223,14 +37018,32 @@
       <c r="E75">
         <v>174</v>
       </c>
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>224</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J75">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>345</v>
       </c>
@@ -35246,14 +37059,32 @@
       <c r="E76">
         <v>175</v>
       </c>
-      <c r="F76" s="63" t="s">
+      <c r="F76" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>225</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J76">
+        <v>31</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>347</v>
       </c>
@@ -35269,14 +37100,32 @@
       <c r="E77">
         <v>176</v>
       </c>
-      <c r="F77" s="63" t="s">
+      <c r="F77" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>226</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J77">
+        <v>32</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>341</v>
       </c>
@@ -35292,14 +37141,32 @@
       <c r="E78">
         <v>177</v>
       </c>
-      <c r="F78" s="63" t="s">
+      <c r="F78" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>227</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J78">
+        <v>33</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>8</v>
+      </c>
+      <c r="M78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>349</v>
       </c>
@@ -35315,14 +37182,32 @@
       <c r="E79">
         <v>178</v>
       </c>
-      <c r="F79" s="63" t="s">
+      <c r="F79" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>228</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J79">
+        <v>34</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>9</v>
+      </c>
+      <c r="M79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>351</v>
       </c>
@@ -35338,14 +37223,32 @@
       <c r="E80">
         <v>179</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>229</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J80">
+        <v>35</v>
+      </c>
+      <c r="K80">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>343</v>
       </c>
@@ -35361,14 +37264,32 @@
       <c r="E81">
         <v>180</v>
       </c>
-      <c r="F81" s="63" t="s">
+      <c r="F81" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>230</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J81">
+        <v>36</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>357</v>
       </c>
@@ -35384,14 +37305,32 @@
       <c r="E82">
         <v>181</v>
       </c>
-      <c r="F82" s="63" t="s">
+      <c r="F82" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>231</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>371</v>
       </c>
@@ -35407,14 +37346,32 @@
       <c r="E83">
         <v>182</v>
       </c>
-      <c r="F83" s="63" t="s">
+      <c r="F83" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>232</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J83">
+        <v>11</v>
+      </c>
+      <c r="K83">
+        <v>11</v>
+      </c>
+      <c r="L83">
+        <v>6</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>355</v>
       </c>
@@ -35430,14 +37387,32 @@
       <c r="E84">
         <v>183</v>
       </c>
-      <c r="F84" s="63" t="s">
+      <c r="F84" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>233</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J84">
+        <v>12</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>363</v>
       </c>
@@ -35453,14 +37428,32 @@
       <c r="E85">
         <v>184</v>
       </c>
-      <c r="F85" s="63" t="s">
+      <c r="F85" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>234</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J85">
+        <v>13</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>8</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>365</v>
       </c>
@@ -35476,14 +37469,32 @@
       <c r="E86">
         <v>185</v>
       </c>
-      <c r="F86" s="63" t="s">
+      <c r="F86" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>235</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J86">
+        <v>14</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>9</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>359</v>
       </c>
@@ -35499,14 +37510,32 @@
       <c r="E87">
         <v>186</v>
       </c>
-      <c r="F87" s="63" t="s">
+      <c r="F87" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G87">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>236</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J87">
+        <v>15</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>367</v>
       </c>
@@ -35522,14 +37551,32 @@
       <c r="E88">
         <v>187</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>237</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J88">
+        <v>16</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>369</v>
       </c>
@@ -35545,14 +37592,32 @@
       <c r="E89">
         <v>188</v>
       </c>
-      <c r="F89" s="63" t="s">
+      <c r="F89" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>238</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J89">
+        <v>17</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="34" t="s">
         <v>361</v>
       </c>
@@ -35568,14 +37633,32 @@
       <c r="E90">
         <v>189</v>
       </c>
-      <c r="F90" s="63" t="s">
+      <c r="F90" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>239</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J90">
+        <v>18</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>375</v>
       </c>
@@ -35591,14 +37674,32 @@
       <c r="E91">
         <v>190</v>
       </c>
-      <c r="F91" s="63" t="s">
+      <c r="F91" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>240</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J91">
+        <v>19</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>389</v>
       </c>
@@ -35614,14 +37715,32 @@
       <c r="E92">
         <v>191</v>
       </c>
-      <c r="F92" s="63" t="s">
+      <c r="F92" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>241</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J92">
+        <v>20</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+      <c r="L92">
+        <v>8</v>
+      </c>
+      <c r="M92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>373</v>
       </c>
@@ -35637,14 +37756,32 @@
       <c r="E93">
         <v>192</v>
       </c>
-      <c r="F93" s="63" t="s">
+      <c r="F93" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>242</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J93">
+        <v>21</v>
+      </c>
+      <c r="K93">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
+      <c r="M93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>381</v>
       </c>
@@ -35660,14 +37797,32 @@
       <c r="E94">
         <v>193</v>
       </c>
-      <c r="F94" s="63" t="s">
+      <c r="F94" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>243</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J94">
+        <v>22</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>383</v>
       </c>
@@ -35683,14 +37838,32 @@
       <c r="E95">
         <v>194</v>
       </c>
-      <c r="F95" s="63" t="s">
+      <c r="F95" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>244</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J95">
+        <v>23</v>
+      </c>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>377</v>
       </c>
@@ -35706,14 +37879,32 @@
       <c r="E96">
         <v>195</v>
       </c>
-      <c r="F96" s="63" t="s">
+      <c r="F96" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>245</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J96">
+        <v>24</v>
+      </c>
+      <c r="K96">
+        <v>12</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>385</v>
       </c>
@@ -35729,14 +37920,32 @@
       <c r="E97">
         <v>196</v>
       </c>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>246</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>9</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>387</v>
       </c>
@@ -35752,14 +37961,32 @@
       <c r="E98">
         <v>197</v>
       </c>
-      <c r="F98" s="63" t="s">
+      <c r="F98" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>247</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J98">
+        <v>26</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>379</v>
       </c>
@@ -35775,14 +38002,32 @@
       <c r="E99">
         <v>198</v>
       </c>
-      <c r="F99" s="63" t="s">
+      <c r="F99" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G99">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>248</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J99">
+        <v>27</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="34" t="s">
         <v>411</v>
       </c>
@@ -35798,14 +38043,32 @@
       <c r="E100">
         <v>199</v>
       </c>
-      <c r="F100" s="63" t="s">
+      <c r="F100" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>249</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J100">
+        <v>28</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>425</v>
       </c>
@@ -35821,14 +38084,32 @@
       <c r="E101">
         <v>200</v>
       </c>
-      <c r="F101" s="63" t="s">
+      <c r="F101" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>250</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J101">
+        <v>29</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>6</v>
+      </c>
+      <c r="M101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>409</v>
       </c>
@@ -35844,14 +38125,32 @@
       <c r="E102">
         <v>201</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>251</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J102">
+        <v>30</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <v>7</v>
+      </c>
+      <c r="M102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>417</v>
       </c>
@@ -35867,14 +38166,32 @@
       <c r="E103">
         <v>202</v>
       </c>
-      <c r="F103" s="63" t="s">
+      <c r="F103" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>252</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J103">
+        <v>31</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="L103">
+        <v>8</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>419</v>
       </c>
@@ -35890,14 +38207,32 @@
       <c r="E104">
         <v>203</v>
       </c>
-      <c r="F104" s="63" t="s">
+      <c r="F104" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>253</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J104">
+        <v>32</v>
+      </c>
+      <c r="K104">
+        <v>8</v>
+      </c>
+      <c r="L104">
+        <v>9</v>
+      </c>
+      <c r="M104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>413</v>
       </c>
@@ -35913,14 +38248,32 @@
       <c r="E105">
         <v>204</v>
       </c>
-      <c r="F105" s="63" t="s">
+      <c r="F105" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>254</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J105">
+        <v>33</v>
+      </c>
+      <c r="K105">
+        <v>9</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>421</v>
       </c>
@@ -35936,14 +38289,32 @@
       <c r="E106">
         <v>205</v>
       </c>
-      <c r="F106" s="63" t="s">
+      <c r="F106" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>255</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J106">
+        <v>34</v>
+      </c>
+      <c r="K106">
+        <v>10</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>423</v>
       </c>
@@ -35959,14 +38330,32 @@
       <c r="E107">
         <v>206</v>
       </c>
-      <c r="F107" s="63" t="s">
+      <c r="F107" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>256</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J107">
+        <v>35</v>
+      </c>
+      <c r="K107">
+        <v>11</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>415</v>
       </c>
@@ -35982,14 +38371,32 @@
       <c r="E108">
         <v>207</v>
       </c>
-      <c r="F108" s="63" t="s">
+      <c r="F108" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G108">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>257</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J108">
+        <v>36</v>
+      </c>
+      <c r="K108">
+        <v>12</v>
+      </c>
+      <c r="L108">
+        <v>6</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>429</v>
       </c>
@@ -36005,14 +38412,32 @@
       <c r="E109">
         <v>208</v>
       </c>
-      <c r="F109" s="63" t="s">
+      <c r="F109" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>258</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>7</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>443</v>
       </c>
@@ -36028,14 +38453,32 @@
       <c r="E110">
         <v>209</v>
       </c>
-      <c r="F110" s="63" t="s">
+      <c r="F110" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>259</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J110">
+        <v>11</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>427</v>
       </c>
@@ -36051,14 +38494,32 @@
       <c r="E111">
         <v>210</v>
       </c>
-      <c r="F111" s="63" t="s">
+      <c r="F111" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>260</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J111">
+        <v>12</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>9</v>
+      </c>
+      <c r="M111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>435</v>
       </c>
@@ -36074,14 +38535,32 @@
       <c r="E112">
         <v>211</v>
       </c>
-      <c r="F112" s="63" t="s">
+      <c r="F112" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>261</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J112">
+        <v>13</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>437</v>
       </c>
@@ -36097,14 +38576,32 @@
       <c r="E113">
         <v>212</v>
       </c>
-      <c r="F113" s="63" t="s">
+      <c r="F113" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>262</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J113">
+        <v>14</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>431</v>
       </c>
@@ -36120,14 +38617,32 @@
       <c r="E114">
         <v>213</v>
       </c>
-      <c r="F114" s="63" t="s">
+      <c r="F114" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G114">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>263</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J114">
+        <v>15</v>
+      </c>
+      <c r="K114">
+        <v>6</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>439</v>
       </c>
@@ -36143,14 +38658,32 @@
       <c r="E115">
         <v>214</v>
       </c>
-      <c r="F115" s="63" t="s">
+      <c r="F115" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>264</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J115">
+        <v>16</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+      <c r="L115">
+        <v>6</v>
+      </c>
+      <c r="M115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>441</v>
       </c>
@@ -36166,14 +38699,32 @@
       <c r="E116">
         <v>215</v>
       </c>
-      <c r="F116" s="63" t="s">
+      <c r="F116" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>265</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J116">
+        <v>17</v>
+      </c>
+      <c r="K116">
+        <v>8</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>433</v>
       </c>
@@ -36189,14 +38740,32 @@
       <c r="E117">
         <v>216</v>
       </c>
-      <c r="F117" s="63" t="s">
+      <c r="F117" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>266</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J117">
+        <v>18</v>
+      </c>
+      <c r="K117">
+        <v>9</v>
+      </c>
+      <c r="L117">
+        <v>8</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>447</v>
       </c>
@@ -36212,14 +38781,32 @@
       <c r="E118">
         <v>217</v>
       </c>
-      <c r="F118" s="63" t="s">
+      <c r="F118" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>267</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J118">
+        <v>19</v>
+      </c>
+      <c r="K118">
+        <v>10</v>
+      </c>
+      <c r="L118">
+        <v>9</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>461</v>
       </c>
@@ -36235,14 +38822,32 @@
       <c r="E119">
         <v>218</v>
       </c>
-      <c r="F119" s="63" t="s">
+      <c r="F119" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>268</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J119">
+        <v>20</v>
+      </c>
+      <c r="K119">
+        <v>11</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="34" t="s">
         <v>445</v>
       </c>
@@ -36258,14 +38863,32 @@
       <c r="E120">
         <v>219</v>
       </c>
-      <c r="F120" s="63" t="s">
+      <c r="F120" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>269</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J120">
+        <v>21</v>
+      </c>
+      <c r="K120">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>453</v>
       </c>
@@ -36281,14 +38904,32 @@
       <c r="E121">
         <v>220</v>
       </c>
-      <c r="F121" s="63" t="s">
+      <c r="F121" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>270</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J121">
+        <v>22</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>455</v>
       </c>
@@ -36304,14 +38945,32 @@
       <c r="E122">
         <v>221</v>
       </c>
-      <c r="F122" s="63" t="s">
+      <c r="F122" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>271</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J122">
+        <v>23</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>449</v>
       </c>
@@ -36327,14 +38986,32 @@
       <c r="E123">
         <v>222</v>
       </c>
-      <c r="F123" s="63" t="s">
+      <c r="F123" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>272</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J123">
+        <v>24</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>7</v>
+      </c>
+      <c r="M123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>457</v>
       </c>
@@ -36350,14 +39027,32 @@
       <c r="E124">
         <v>223</v>
       </c>
-      <c r="F124" s="63" t="s">
+      <c r="F124" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>273</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J124">
+        <v>25</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>8</v>
+      </c>
+      <c r="M124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>459</v>
       </c>
@@ -36373,14 +39068,32 @@
       <c r="E125">
         <v>224</v>
       </c>
-      <c r="F125" s="63" t="s">
+      <c r="F125" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>274</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J125">
+        <v>26</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>9</v>
+      </c>
+      <c r="M125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>451</v>
       </c>
@@ -36396,14 +39109,32 @@
       <c r="E126">
         <v>225</v>
       </c>
-      <c r="F126" s="63" t="s">
+      <c r="F126" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>275</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J126">
+        <v>27</v>
+      </c>
+      <c r="K126">
+        <v>6</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>465</v>
       </c>
@@ -36419,14 +39150,32 @@
       <c r="E127">
         <v>226</v>
       </c>
-      <c r="F127" s="63" t="s">
+      <c r="F127" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>276</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J127">
+        <v>28</v>
+      </c>
+      <c r="K127">
+        <v>7</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>479</v>
       </c>
@@ -36442,14 +39191,32 @@
       <c r="E128">
         <v>227</v>
       </c>
-      <c r="F128" s="63" t="s">
+      <c r="F128" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>277</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J128">
+        <v>29</v>
+      </c>
+      <c r="K128">
+        <v>8</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>463</v>
       </c>
@@ -36465,14 +39232,32 @@
       <c r="E129">
         <v>228</v>
       </c>
-      <c r="F129" s="63" t="s">
+      <c r="F129" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>278</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J129">
+        <v>30</v>
+      </c>
+      <c r="K129">
+        <v>9</v>
+      </c>
+      <c r="L129">
+        <v>9</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>471</v>
       </c>
@@ -36488,14 +39273,32 @@
       <c r="E130">
         <v>229</v>
       </c>
-      <c r="F130" s="63" t="s">
+      <c r="F130" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>279</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J130">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <v>10</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>473</v>
       </c>
@@ -36511,14 +39314,32 @@
       <c r="E131">
         <v>230</v>
       </c>
-      <c r="F131" s="63" t="s">
+      <c r="F131" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>280</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J131">
+        <v>32</v>
+      </c>
+      <c r="K131">
+        <v>11</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>467</v>
       </c>
@@ -36534,14 +39355,32 @@
       <c r="E132">
         <v>231</v>
       </c>
-      <c r="F132" s="63" t="s">
+      <c r="F132" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>281</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J132">
+        <v>33</v>
+      </c>
+      <c r="K132">
+        <v>12</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>475</v>
       </c>
@@ -36557,14 +39396,32 @@
       <c r="E133">
         <v>232</v>
       </c>
-      <c r="F133" s="63" t="s">
+      <c r="F133" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G133">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>282</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J133">
+        <v>34</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>6</v>
+      </c>
+      <c r="M133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>477</v>
       </c>
@@ -36580,14 +39437,32 @@
       <c r="E134">
         <v>233</v>
       </c>
-      <c r="F134" s="63" t="s">
+      <c r="F134" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G134">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>283</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J134">
+        <v>35</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>7</v>
+      </c>
+      <c r="M134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>469</v>
       </c>
@@ -36603,14 +39478,32 @@
       <c r="E135">
         <v>234</v>
       </c>
-      <c r="F135" s="63" t="s">
+      <c r="F135" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G135">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>284</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J135">
+        <v>36</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>8</v>
+      </c>
+      <c r="M135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>483</v>
       </c>
@@ -36626,14 +39519,32 @@
       <c r="E136">
         <v>235</v>
       </c>
-      <c r="F136" s="63" t="s">
+      <c r="F136" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>285</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>9</v>
+      </c>
+      <c r="M136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>497</v>
       </c>
@@ -36649,14 +39560,32 @@
       <c r="E137">
         <v>236</v>
       </c>
-      <c r="F137" s="63" t="s">
+      <c r="F137" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>286</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J137">
+        <v>11</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>481</v>
       </c>
@@ -36672,14 +39601,32 @@
       <c r="E138">
         <v>237</v>
       </c>
-      <c r="F138" s="63" t="s">
+      <c r="F138" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>287</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J138">
+        <v>12</v>
+      </c>
+      <c r="K138">
+        <v>6</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>489</v>
       </c>
@@ -36695,14 +39642,32 @@
       <c r="E139">
         <v>238</v>
       </c>
-      <c r="F139" s="63" t="s">
+      <c r="F139" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>288</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J139">
+        <v>13</v>
+      </c>
+      <c r="K139">
+        <v>7</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
         <v>491</v>
       </c>
@@ -36718,14 +39683,32 @@
       <c r="E140">
         <v>239</v>
       </c>
-      <c r="F140" s="63" t="s">
+      <c r="F140" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>289</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J140">
+        <v>14</v>
+      </c>
+      <c r="K140">
+        <v>8</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>485</v>
       </c>
@@ -36741,14 +39724,32 @@
       <c r="E141">
         <v>240</v>
       </c>
-      <c r="F141" s="63" t="s">
+      <c r="F141" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>290</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1531</v>
+      </c>
+      <c r="J141">
+        <v>15</v>
+      </c>
+      <c r="K141">
+        <v>9</v>
+      </c>
+      <c r="L141">
+        <v>7</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>493</v>
       </c>
@@ -36764,14 +39765,32 @@
       <c r="E142">
         <v>241</v>
       </c>
-      <c r="F142" s="63" t="s">
+      <c r="F142" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>291</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J142">
+        <v>16</v>
+      </c>
+      <c r="K142">
+        <v>10</v>
+      </c>
+      <c r="L142">
+        <v>8</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>495</v>
       </c>
@@ -36787,14 +39806,32 @@
       <c r="E143">
         <v>242</v>
       </c>
-      <c r="F143" s="63" t="s">
+      <c r="F143" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>292</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J143">
+        <v>17</v>
+      </c>
+      <c r="K143">
+        <v>11</v>
+      </c>
+      <c r="L143">
+        <v>9</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>487</v>
       </c>
@@ -36810,14 +39847,32 @@
       <c r="E144">
         <v>243</v>
       </c>
-      <c r="F144" s="63" t="s">
+      <c r="F144" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>293</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J144">
+        <v>18</v>
+      </c>
+      <c r="K144">
+        <v>12</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>79</v>
       </c>
@@ -36833,14 +39888,32 @@
       <c r="E145">
         <v>244</v>
       </c>
-      <c r="F145" s="63" t="s">
+      <c r="F145" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>294</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J145">
+        <v>19</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>122</v>
       </c>
@@ -36856,14 +39929,32 @@
       <c r="E146">
         <v>245</v>
       </c>
-      <c r="F146" s="63" t="s">
+      <c r="F146" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>295</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J146">
+        <v>20</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="M146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>72</v>
       </c>
@@ -36879,14 +39970,32 @@
       <c r="E147">
         <v>246</v>
       </c>
-      <c r="F147" s="63" t="s">
+      <c r="F147" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G147">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>296</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J147">
+        <v>21</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>113</v>
       </c>
@@ -36902,14 +40011,32 @@
       <c r="E148">
         <v>247</v>
       </c>
-      <c r="F148" s="63" t="s">
+      <c r="F148" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>297</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J148">
+        <v>22</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>7</v>
+      </c>
+      <c r="M148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>115</v>
       </c>
@@ -36925,14 +40052,32 @@
       <c r="E149">
         <v>248</v>
       </c>
-      <c r="F149" s="63" t="s">
+      <c r="F149" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>298</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J149">
+        <v>23</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149">
+        <v>8</v>
+      </c>
+      <c r="M149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="46" t="s">
         <v>85</v>
       </c>
@@ -36948,14 +40093,32 @@
       <c r="E150">
         <v>249</v>
       </c>
-      <c r="F150" s="63" t="s">
+      <c r="F150" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>299</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J150">
+        <v>24</v>
+      </c>
+      <c r="K150">
+        <v>6</v>
+      </c>
+      <c r="L150">
+        <v>9</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>117</v>
       </c>
@@ -36971,14 +40134,32 @@
       <c r="E151">
         <v>250</v>
       </c>
-      <c r="F151" s="63" t="s">
+      <c r="F151" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>300</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J151">
+        <v>25</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>119</v>
       </c>
@@ -36994,14 +40175,32 @@
       <c r="E152">
         <v>251</v>
       </c>
-      <c r="F152" s="63" t="s">
+      <c r="F152" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G152">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>301</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J152">
+        <v>26</v>
+      </c>
+      <c r="K152">
+        <v>8</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>91</v>
       </c>
@@ -37017,20 +40216,38 @@
       <c r="E153">
         <v>252</v>
       </c>
-      <c r="F153" s="63" t="s">
+      <c r="F153" s="59" t="s">
         <v>1390</v>
       </c>
       <c r="G153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>302</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J153">
+        <v>27</v>
+      </c>
+      <c r="K153">
+        <v>9</v>
+      </c>
+      <c r="L153">
+        <v>5</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D154" s="51"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D155" s="51"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D156" s="51"/>
     </row>
   </sheetData>
